--- a/mihoyo_campus_jobs_full.xlsx
+++ b/mihoyo_campus_jobs_full.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,112 +669,25 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>后端开发实习生 - 研发效能</t>
+          <t>美术测试工程师</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>程序&amp;技术类</t>
+          <t>质量管理类</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>实习生专项</t>
+          <t>2026届秋招</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>本科及以上</t>
+          <t>不限/未提及</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>1、2026/2027届本科及以上学历在读，计算机等相关专业优先；
-2、学习能力强，有独立解决问题的能力；
-3、熟悉面向对象编程，掌握Java/C++/Python/Go中的至少一门语言，Go背景优先；
-4、有良好的沟通能力和业务理解能力；
-5、每周保证至少4天的实习时间，可实习4个月以上。</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>团队介绍：
-研发效能团队聚焦于公司内部游戏项目组业务流程提效，覆盖游戏研发管线、本地化翻译等游戏生产环节，通过持续引入前沿技术，结合机器学习智能化，构建高可靠、高效率的工程系统和基础设施工具，覆盖游戏项目组多样化的业务提效需求。
-工作职责：
-1、负责服务端系统的技术方案设计、开发与系统维护工作；
-2、负责高质量的设计和编码，承担重点、难点的技术问题攻坚；
-3、参与各专项技术调研，新技术引入等前瞻项目。</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>对技术有好奇心，持续关注熟悉前沿技术，有AI/大模型领域有项目实践</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>税务实习生</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>综合类</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>本科及以上</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>1、本科以上学历，2027届及之后毕业，财税相关专业，有一定的财税基础知识；
-2、具有四大、互联网行业相关企业税务岗位实习经验者优先；
-3、具有较强的执行力和团队合作能力，能及时完成上级交办事宜；
-4、学习能力和适应性强，沟通协调能力出色，并具有较强的责任心；
-5、每周至少线下实习3天及以上，至少3个月；每周5天线下全勤、实习6个月以上者优先。</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>1、协助境内主体月度、季度申报及年度汇算清缴申报工作；
-2、协助完成非贸付汇等事项处理；
-3、协助境内税收优惠申请材料准备、申报、税局/商委/科委备案等相关事项；
-4、协助税务局日常问询、核查相关的沟通，及税收政策解读及定期整理更新；
-5、团队交办的其他相关工作。</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>美术测试工程师</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>质量管理类</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>2026届秋招</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>不限/未提及</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>1. 计算机/艺术类相关专业优先；
 2. 有较强的逻辑和思辨能力，耐心细致，有责任心，有较强的问题发现和解决能力；
@@ -784,7 +697,7 @@
 6. 热爱游戏，有丰富的游戏经验，能持续输出游戏体验与易用性的优化建议。</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>1. 对游戏内美术资产、效果表现进行测试，了解相关内容的制作、以及逻辑实现，关注性能，保障品质；
 2. 在测试工作中熟练运用Unity引擎工具、美术配置、美术资源检查等；
@@ -792,35 +705,35 @@
 4. 能够暴露管线问题，并协同上游或者跨部门进行管线优化。</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>1. 有良好计算机基础和美术审美能力；
 2. 可随简历附带个人作品集</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>游戏测试工程师实习生</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>质量管理类</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>1. 专业不限，计算机相关专业更佳；
 2. 有扎实的计算机基础，熟悉C++/C#/java/python/lua等至少一门编程语言，深入理解数据结构、算法、操作系统和网络等知识；
@@ -830,7 +743,7 @@
 6. 能实习四个月及以上，每周出勤不低于4天。</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>你可以
 1. 加入顶尖的游戏研发团队，享有优质和规范的培训，获得飞速成长的机会；
@@ -840,35 +753,35 @@
 5. 以最高的标准要求自己和他人，不断推动改进研发流程规范，持续提升团队效率和质量，为打造超一流产品贡献力量。</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>1. 熟悉unity、UE等游戏引擎；
 2. 有游戏测试相关岗位经验。</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>技术美术（多方向）</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>1.本科及以上学历；
 2.技术能力（有以下任意方向即可）
@@ -884,7 +797,7 @@
 6.热爱游戏，具备较强的学习能力和团队沟通能力。</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>1.与美术和程序团队紧密合作，发挥想象力和技术力构建出完美的虚拟世界；
 2.优化美术工作管线，制定美术资源规范、开发相关工具，提升美术内容生产效率；
@@ -893,7 +806,7 @@
 5.协同程序、美术团队解决开发中的各类技术难题。</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>1.计算机、美术设计、动画、数字媒体等相关专业优先；
 2.有美术基础、技术美术工作或者实习经验优先；
@@ -902,28 +815,28 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>引擎开发工程师</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>1. 熟悉python/C++等一种或者几种开发语言
 2. 熟悉prompt工程，有大模型prompt工程调优，langchain开发经验落地者经验优先
@@ -932,40 +845,40 @@
 5. 有一定的后端开发实践经验，能独立涉及，开发，部署和线上问题追查</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>负责AI游戏engine相关的功能开发，调试和部署</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>1. 熟悉虚幻引擎的使用和开发
 2. 熟悉其他DCC软件的使用或者插件开发</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>AI渲染工程师</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>1. 扎实的计算机和编程基础。
 2. 扎实的机器学习、图形学、GPU 编程基础。
@@ -973,13 +886,13 @@
 4. 熟悉主流的深度学习框架和工具。</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>1. 研发面向下一代产品的渲染技术，探索 AI 技术与图形渲染管线的集成方案。
 2. 跟进学术界和工业界前沿技术及硬件的发展，探索并实现几何、材质、光照模块相关技术方案。</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>1. 有对应领域的项目实践经验。
 2. 在顶级会议或期刊上发表过相关领域的论文。
@@ -987,28 +900,28 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>3D生成研究员</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>1、计算机图形学或计算机视觉等相关专业优先；
 2、有3D大模型训练、数据处理经验；
@@ -1016,40 +929,40 @@
 4、对技术充满热情，思维清晰，具有很好的问题分析推断能力、良好的沟通表达能力和合作能力。</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>追踪三维生成大模型方向前沿算法，负责可行技术方案实现。</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>1、发表过至少一篇相关的一作顶会文章（比如SIGGRAPGH，CVPR等）；
 2、深度参与过相关的高品质项目开发（需有明确的成果展示）。</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>RL算法工程师</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>1、硕士及以上学历，计算机、数学、人工智能等相关专业，扎实的深度强化学习技术积累；
 2、熟练使用Tensorflow/Pytorch等至少一种深度学习框架；
@@ -1057,40 +970,40 @@
 4、对技术和游戏充满热情，且有高度的责任心和团队合作精神。</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>1、负责游戏AI深度强化学习算法设计，提供解决方案等；
 2、负责游戏AI前沿算法的研究和开发，包括特征工程，模型训练，效果优化，RL分布式框架等。</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>有相关游戏强化学习经验者加分</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>AI Native游戏LLM研究员</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>1、2026届应届硕士/博士，计算机/人工智能/数学相关及相关专业；
 2、精通Python/PyTorch，具有良好的编程能力和扎实的数学理论基础；
@@ -1099,42 +1012,42 @@
 5、良好的沟通能力，跨团队协作能力，具备出色的规划、执行力，以及优秀的学习能力和自我驱动力。</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>1、探索大模型及Agent技术在游戏领域的前沿应用，包括不限于智能NPC、AI交互叙事、AIGC游戏内容生成管线研发；
 2、优化和提升游戏场景下的模型效果：SFT/RLHF训练策略、Reward Model、记忆系统、Agent架构；
 3、预研大模型驱动的AI Native游戏玩法、提升游戏体验、确保内容可控性和实时推理性能等。</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>1、在NeurIPS/ICML/ICLR/ACL/EMNLP等会议或期刊上发表过LLM、Agent相关论文者优先；
 2、有游戏AI相关研究或开发经历（如NPC/AIGC系统）。</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>UE5游戏渲染开发（Console)</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>1.熟悉至少一种现代图形API（DX12, Vulkan等）；
 2.熟悉至少一种图形硬件架构（GCN, RDNA2等）；
@@ -1142,7 +1055,7 @@
 4.熟练掌握C++语言。</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>1.与技术美术（TA）和美术团队紧密合作，开发符合次世代游戏画面水准的图形功能；
 2.优化在超大规模复杂场景下的图形功能性能；
@@ -1151,30 +1064,30 @@
 5.学习并理解下一代主机平台的特性，结合项目做深度定制化图形功能开发。</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>大模型训练系统工程师</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，计算机、软件工程、人工智能等相关专业优先
 2、熟练掌握Linux环境下的C/C++与Python语言
@@ -1184,14 +1097,14 @@
 6、有良好的文档习惯，及时按要求撰写更新工作流程及技术文档</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>1、负责大语言模型、视频模型、多模态模型的预训练和强化学习框架研发与优化
 2、与算法团队深度合作，进行算法与系统的联合设计与优化
 3、保持关注行业前沿技术，且有能力和热情开展创新研究</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>- 深入研究过至少一种机器学习框架（TF/PyTorch）或其他分布式训练框架（Megatron/VeRL等）的底层架构和原理
 - 具备开发高性能CUDA kernel的经验
@@ -1200,28 +1113,28 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>大模型推理系统工程师</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，计算机、软件工程、人工智能等相关专业优先
 2、熟练掌握Linux环境下的C/C++与Python语言
@@ -1231,14 +1144,14 @@
 6、有良好的文档习惯，及时按要求撰写更新工作流程及技术文档</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>1、负责公司各AI推理场景（LLM/多模态/视频等）的推理系统研发和性能优化、资源调度、可观测性搭建、日常维护等工作
 2、与算法团队深度合作，进行算法与系统的联合设计与优化（如模型量化、kvcache量化、投机采样等）
 3、保持关注行业前沿技术，且有能力和热情开展创新研究</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>- 深入研究过至少一种推理框架（vllm/sglang等）的底层架构和原理，理解page attention等相关核心技术 
 - 理解GPU硬件架构，深入理解GPU软件栈，具备GPU性能分析和开发的经验
@@ -1248,28 +1161,28 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>多模态视频数据算法工程师</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，计算机科学、电子工程、人工智能等相关专业
 2、1年以上音视频处理或计算机视觉相关工作经验，熟悉音视频编解码、信号处理、视频图像处理基础理论
@@ -1278,7 +1191,7 @@
 5、具备大规模数据处理和分布式系统开发经验</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>负责构建高精度的音视频大规模数据处理管线，参与多模态核心算法的效率优化、精度迭代与多模态模型的系统整合，追求极致的多模态感知、理解、分类的性能边界探索。
 核心职责：
@@ -1287,7 +1200,7 @@
 3、数据处理管线的系统优化: 设计分布式处理架构，支持大规模数据的并行处理，建立数据质量监控和异常检测机制</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>1、有人脸识别、分割和跟踪算法经验，语音识别等具体算法实现经验
 2、熟悉多模态学习、音视频内容理解、视频摘要、视频问答、跨模态检索和理解等前沿技术
@@ -1295,28 +1208,28 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>大模型训练系统开发实习生</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>1、硕士及以上学历，计算机、软件工程、人工智能等相关专业在读优先
 2、熟练掌握Linux环境下的C/C++与Python语言
@@ -1326,14 +1239,14 @@
 6、有良好的文档习惯，及时按要求撰写更新工作流程及技术文档</t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>1、负责大语言模型、视频模型、多模态模型的预训练和强化学习框架研发与优化
 2、与算法团队深度合作，进行算法与系统的联合设计与优化
 3、保持关注行业前沿技术，且有能力和热情开展创新研究</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>- 深入研究过至少一种机器学习框架（TF/PyTorch）或其他分布式训练框架（Megatron/VeRL等）的底层架构和原理
 - 具备开发高性能CUDA kernel的经验
@@ -1342,28 +1255,28 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>AIGC图像算法工程师</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>1.计算机，人工智能，电子信息等相关专业硕士及以上学历；
 2.精通Diffusion等图像生成算法，有相关方向顶会论文者优先（包括但不限于CVPR, ICCV, ECCV, AAAI等）；
@@ -1372,14 +1285,14 @@
 5.具备较强的学习能力，清晰的逻辑思维能力和优秀的沟通能力，对新技术有强烈的好奇心。</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>1.负责游戏美术AI工具的端到端技术架构设计与实现（从需求理解、管线构建到模型训练等等），打造完整的美术生产AI工具生态；
 2.持续跟踪AIGC领域最新技术动态，快速评估并落地前沿算法到实际业务场景；
 3.运用多模态技术思维，深度理解产品需求，结合文本、图像、视频等多种输入输出方式，设计并实现创新性的AI应用解决方案；</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>1.具备ComfyUI等AIGC应用工具的实际使用经验，了解工具链整合与优化；
 2.对二次元文化和游戏美术有深入理解；
@@ -1387,28 +1300,28 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>云游戏实时音视频研发工程师</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>1、2026届应届生，本科及以上学历，计算机或相关专业优先；
 2、有扎实的C++、计算机体系架构、计算机网络等基础知识；
@@ -1418,7 +1331,7 @@
 6、有较强的求知欲和学习能力，能通过快速学习解决未知问题。</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>1、参与云游戏的RTC技术框架研发；
 2、对接公司的游戏产品，完成操控适配、音视频编解码、性能优化等工作；
@@ -1426,30 +1339,30 @@
 4、持续优化工程架构、代码质量。</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>前端开发工程师（文档/工具/组件/系统）</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>1.2026届应届生，本科及以上学历，计算机相关专业；
 2.深刻理解计算机原理、数据结构、常用算法和常见设计模式；
@@ -1458,7 +1371,7 @@
 5.有WEB前端项目实战开发经验可加分。</t>
         </is>
       </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>1.涉及协同文档富文本编辑器、协同在线表格、多维表、思维导图、白板，或者Web组件、功能模块和产品页面的前端开发；
 2.与产品经理、UX设计人员共同参与产品设计评审；
@@ -1466,7 +1379,7 @@
 4.持续优化用户体验，并保证兼容性、执行效率和可扩展性。</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>1.有 TypeScript 项目经验；
 2.有个人技术博客、GitHub开源项目或相关社区贡献；
@@ -1475,28 +1388,28 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>AI虚拟人算法系统工程师</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>1. 精通Python和C++，具备高性能代码开发调试经验；熟悉UE开发框架(蓝图、Slate UI、动画系统、插件开发)。
 2. 深入理解TTS/V2F/V2M等算法的输入输出、性能边界及系统关联性；掌握3D表情(BlendShape/Morph Target)与动作(骨骼动画)驱动原理及数据格式(FBX, USD, 骨骼权重)。
@@ -1504,7 +1417,7 @@
 4. 具备跨领域(算法→引擎→美术)效果分析能力，能通过数据流追踪、日志工具、UE Profiler等快速定位问题。</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>1. 算法系统集成与优化： 负责TTS、V2F、V2M等算法服务的实现，并和UE引擎进行系统级集成，确保高效稳定运行；设计实现算法模块与UE的通信协议、数据接口及实时流式推理管线。
 2. UE管线开发与维护： 构建UE与AI服务(AIO)交互框架，管理数据传输(如BlendShape、骨骼数据)，保障端到端效果；优化3D角色表情/动作实时驱动流程，解决延迟、同步与性能瓶颈。
@@ -1512,7 +1425,7 @@
 4. 技术方案设计： 设计算法模块单元测试与集成测试策略，确保系统鲁棒性及扩展性。</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>虚拟人/数字人管线开发经验，熟悉Rigging、动画重定向；
 了解模型压缩(Quantization)、推理加速(TensorRT/ONNX)；
@@ -1521,79 +1434,28 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>多模态Pretrain研究实习生-audio方向</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>动作生成研究员</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>博士及以上</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>1. 计算机科学、人工智能、电子工程等相关博士学历
-2. 具备大模型（LLM 或多模态）训练经验，熟悉 Transformer 架构与大规模分布式训练
-3. 深入掌握以下至少一方向
-• 通用音频自监督表征，如 Best-RQ, CLAP, wav2vec bert2.0 等
-• Omni模型架构和多模态RL
-• 语音识别/情感识别/音乐信息检索算法
-4. 精通 Pytorch，具备海量数据处理经验
-5. 具备跨时区协作与良好沟通能力，结果导向，责任心强</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>专注于AudioLLM通用音频理解模型的研究与开发，参与构建下一代音频基础模型和Omni多模态框架，探索语音、音乐、环境声音等多模态音频内容的统一理解建模方法，推动 audio AI 在理解、生成和交互场景中的技术突破。
-核心职责：
-1. 模型架构与训练：负责通用音频理解模型设计与分布式训练优化，实现语音识别、情感分析、音频问答、音乐理解、声音事件检测等多任务统一建模
-2. 数据管线：设计并落地大规模多模态音频数据 pipeline，完成数据对齐、质量控制与自动标注
-3. 跨模态融合：研究音频编码器与大语言模型融合技术，优化跨模态注意力与统一特征表示</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>1. 在 NeurIPS/ICML/ICASSP/ISMIR 等顶级会议发表论文
-2. 负责过百万小时级多类型音频数据管理
-3. 拥有音频文本跨模态对齐、指令微调或多任务学习实践
-4. 在音频 AI 或音乐 AI 领域有开源贡献或技术影响力</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>动作生成研究员</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>程序&amp;技术类</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>2026届秋招</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>1.计算机图形学专业方向，对动画、AI、动捕等有一定了解；
 2.具有较强的探索精神和编程实现能力；
@@ -1601,35 +1463,82 @@
 4.具备良好的逻辑思维和分析问题能力，对工作充满激情。</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>负责3D虚拟人动画方面的一些技术探索，比如高表现力的肢体运动生成、语音驱动手势、用AI技术提升虚拟人真实感等；</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Infra推理优化实习生</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>程序&amp;技术类</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>硕士及以上</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>1、硕士及以上学历，具有扎实的计算机基础，熟悉操作系统和计算机体系结构等，熟练掌握 C++/Python，对数据结构与算法设计有较深刻的理解；
+2、熟悉至少一种主流的深度学习框架（如 PyTorch）和至少一种主流的训练框架（如 Megatron/Deepspeed/FSDP）；
+3、熟练掌握 CUDA 相关编程，有内核级优化经验者优先；
+4、了解大模型训练基本范式，熟悉 Transformer 架构及其优化方法（如 FlashAttention、GQA/MLA 等）者优先；
+5、责任心强，思路清晰，技术视野开阔，对业界新技术敏感，喜欢钻研，具有良好的学习能力并注重团队合作；</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>1、支撑团队不同大模型任务下的训练及推理优化，包括但不限于：架构设计、检查点优化、训练容错恢复、底层算子优化及通信优化等；
+2、研究和优化大规模异构加速集群调度、存储、通信互联、监控、Profiling等组件，提升整体硬件利用效率；
+3、针对具体任务调研并进行对应的 Scale Up 实验及优化，包括但不限于并行化策略优化、ZeRO/FSDP 优化、FP8、激活值优化等，加速模型训练，优化显存开销；</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>1、有大规模大模型训练和推理优化经验者优先；
+2、熟悉cutlass 3.0和hopper架构，有算子优化经验者优先；
+3、了解 Kubernetes 以及分布式存储，有相关开发经验者优先；
+4、有大型互联网系统（如搜索、推荐、广告）开发经验者优先；
+5、有发表 OSDI/MLSys 等顶会论文，或 ACM/ICPC 等编程比赛获奖经历者优先；</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>LLM数据处理工程师</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>职位要求：
 1、计算机/软件工程等相关专业本科以上学历，拥有LLM相关专业硕士/博士学位者优先；
@@ -1638,7 +1547,7 @@
 4、具备优秀的分析和解决问题能力，良好的团队合作精神及沟通意识；</t>
         </is>
       </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr">
         <is>
           <t>LLM数据处理工程师
 职位描述：
@@ -1647,30 +1556,30 @@
 3、参与构建高质量LLM数据产出的Pipeline，包括文本数据质量、Pipeline的优化等；</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>音频数据处理工程师</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>职位要求：
 1、计算机/软件工程等相关专业本科以上学历，硕士/博士学位者优先；
@@ -1679,7 +1588,7 @@
 4、具备优秀的分析和解决问题能力，良好的团队合作精神及沟通意识；</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F26" s="3" t="inlineStr">
         <is>
           <t>职位描述：
 1、参与音频的数据准备、数据清洗、数据实验等工作，构建高质量的音频数据集；
@@ -1687,30 +1596,30 @@
 3、构建高质量音频数据产出的Pipeline；</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>【策美实习】技术美术（多方向）</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>1.本科及以上学历；
 2.技术能力（有以下任意方向即可）
@@ -1726,7 +1635,7 @@
 6.热爱游戏，具备较强的学习能力和团队沟通能力。</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>1.与美术和程序团队紧密合作，发挥想象力和技术力构建出完美的虚拟世界；
 2.优化美术工作管线，制定美术资源规范、开发相关工具，提升美术内容生产效率；
@@ -1735,7 +1644,7 @@
 5.协同程序、美术团队解决开发中的各类技术难题。</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>1.计算机、美术设计、动画、数字媒体等相关专业优先；
 2.有美术基础、技术美术工作或者实习经验优先；
@@ -1744,28 +1653,28 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>【策美实习】AIGC图像算法工程师</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>1.计算机，人工智能，电子信息等相关专业硕士及以上学历；
 2.精通Diffusion等图像生成算法，有相关方向顶会论文者优先（包括但不限于CVPR, ICCV, ECCV, AAAI等）；
@@ -1774,14 +1683,14 @@
 5.具备较强的学习能力，清晰的逻辑思维能力和优秀的沟通能力，对新技术有强烈的好奇心。</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>1.负责游戏美术AI工具的端到端技术架构设计与实现（从需求理解、管线构建到模型训练等等），打造完整的美术生产AI工具生态；
 2.持续跟踪AIGC领域最新技术动态，快速评估并落地前沿算法到实际业务场景；
 3.运用多模态技术思维，深度理解产品需求，结合文本、图像、视频等多种输入输出方式，设计并实现创新性的AI应用解决方案。</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>1.具备ComfyUI等AIGC应用工具的实际使用经验，了解工具链整合与优化；
 2.对二次元文化和游戏美术有深入理解；
@@ -1789,28 +1698,28 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>LLM Evaluation算法研究员</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>1. 计算机科学、人工智能或相关领域的硕士及以上学历
 2. 对大语言模型评测体系有较深入的理解，并能构建评估方法以改进模型性能，掌握LLM as Judge技术
@@ -1818,14 +1727,14 @@
 4. 有良好的中英文阅读和鉴赏能力，有良好的沟通合作能力</t>
         </is>
       </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>1. 对大语言模型评估结果做深入数据分析，理解不同评估指标与用户体验、需求之间的关联，对模型训练迭代提供指导意见
 2. 研发可靠的大语言模型评估管线，制定针对角色扮演、创意写作等能力的自动或人工评测准则与方法，构建对应的评测数据集
 3. 紧扣偏好对齐目标，分析和清洗奖励模型数据，研发不易被reward hack、偏好有深度的奖励模型</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>1. 在ACM/ICPC，NOI/IOI，TopCoder等编程大赛上有获奖
 2. 在模型评估方向有NeurIPS/ICML/ACL/EMNLP顶级论文发表，积极追踪大模型方向前沿进展和应用
@@ -1834,28 +1743,28 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>LLM Pretrain算法研究员</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>1、计算机科学、人工智能或相关领域的硕士或博士学历 
 2、在自然语言处理、大语言模型研究或机器学习领域中具有相关研究经验 
@@ -1863,7 +1772,7 @@
 4、具备有效的沟通和协作技能，对探索新技术和推动技术创新充满热情</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>1、专研训练框架，快速定位训练中出现的问题，分析训练过程中的模型表现，跟infra team合作来保证训练策略的正确性 
 2、紧跟领域前沿技术，研究新型LLM模型架构，提升训练或推理的计算效率和模型性能 
@@ -1871,7 +1780,7 @@
 4、拓展模型在长文本理解和生成的能力</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>1、在NeurIPS/ICML/ACL/EMNLP等顶级会议上发表过高引论文 
 2、在ACM/ICPC，NOI/IOI，TopCoder等编程竞赛上有获奖 
@@ -1880,28 +1789,28 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>游戏特效师</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>1.具备良好的美术功底，对于图形、色彩、立体构成等基础领域有良好的理解；
 2.熟悉Unity引擎的粒子系统，了解特效贴图和模型的制作方法，具备一定的手绘能力；或熟悉UE引擎及Niagara粒子系统，了解特效贴图模型的制作；
@@ -1910,7 +1819,7 @@
 5.具备良好的学习能力，能够独立解决简单问题并做到举一反三。</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>1.按照策划需求设计并制作游戏中战斗、Cutscene、活动、物件等特效，并跟进特效资源在游戏中的表现；
 2.配合性能组做好特效资源的性能优化，保证游戏流畅运行；
@@ -1918,35 +1827,35 @@
 4.不断学习和尝试新的特效技术和软件。</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>1.熟悉当前流行动漫，游戏；对风格化特效感兴趣，包括但不限于日系风格；
 2.游戏爱好者，有比较丰富的主机/网游/手机游戏经验。</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>载具原画师（内饰/外饰）</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>1.具备手绘纸面草图能力，数字绘画，3D辅助设计与渲染能力；
 2.对车辆外观或内饰造型等相关方面有强烈爱好，对空间结构比例，车辆构造布局，以及内外造型细节与材质的使用处理有一定认识。理解合理结构和功能设计的重要性；
@@ -1957,7 +1866,7 @@
 7.具备良好团队协作能力；</t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>本岗位仅接受2026届投递
 1.完成项目需求的载具（交通工具）概念设计工作（主要以陆地交通工具为主，也会涉及水面或空中交通工具）；
@@ -1966,7 +1875,7 @@
 4.辅助其他设计岗位的相关工作。</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t>1.参与过游戏项目的实习/外包经历；
 2.对游戏富有激情，有比较丰富的主机/网游/手机游戏经验；
@@ -1974,28 +1883,28 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>场景模型师</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>1.扎实的美术功底，优秀的审美能力，有丰富的想象力和创造力；
 2.熟练掌握Zbrush、3dsMAX/Maya等3D建模软件以及Substance Painter等PBR材质软件，了解3D模型的相关基础知识；
@@ -2005,7 +1914,7 @@
 6.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>本岗位仅接受2026届投递
 风格不限！风格不限！风格不限！
@@ -2014,7 +1923,7 @@
 3.与项目组程序、策划、美术团队充分沟通，了解需求，准确对接并实现效果。</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>1.参与过游戏项目的实习/外包经历；
 2.热爱游戏，对游戏富有激情，爱看动画、电影优先考虑；
@@ -2022,41 +1931,41 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>UI动效设计师</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>1.影视制作、多媒体设计、动画、数字媒体等相关专业、有扎实的美术功底；
 2.熟悉视觉设计，有较强的动画设计功底，掌握设计制作工具PS，熟练掌握AE、3D软件、Spine等动画软件，对Unity引擎的使用较为熟悉，熟悉UGUI，或对Unreal引擎的使用较为熟悉，熟悉UMG；
 3.逻辑思维清晰，具备良好的沟通能力、团队协作能力。</t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>1.根据界面视觉风格，设计制作界面动画和特效相关资源，提升游戏表现；
 2.配合UI设计师和开发团队，使用Unity引擎、Unreal引擎或者AE等工具实现动效落地，确保效果与设计一致。</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>Unity 方向：
 1.深谙二次元文化，熟悉当前流行动漫，游戏，对于日系风格有深入的了解；
@@ -2066,28 +1975,28 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>灯光师</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>1.需要有富有色彩想象力，对色彩有敏感的认知和扎实的光影塑造能力，有原画或者Color Key经验优先；
 2.对流行的游戏引擎（Unreal、Unity等）有一定了解，或者对流行的渲染器有一定了解；
@@ -2097,42 +2006,42 @@
 6.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>1.通过和策划、美术、技术美术紧密合作设计游戏中的灯光美术方案 ，以及过场动画中的灯光氛围；
 2.参与协调场景和其他相关部门灯光需求，创造高质量的灯光氛围并且贯穿项目的风格；
 3.与技术团队共同探索灯光工具及渲染技术，并确保渲染实现方案符合性能的视觉品质和要求。</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>1.热爱电影，对电影灯光艺术有一定见解；
 2.热爱摄影者加分。欢迎补充摄影作品。</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>关卡美术设计师</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>1.扎实的美术功底，优秀的审美能力，有丰富的想象力和创造力；
 2.基本掌握Zbrush、3dsMAX/Maya等3D建模软件以及Substance Painter等PBR材质软件，了解3D模型的相关基础知识；
@@ -2143,7 +2052,7 @@
 7.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>本岗位仅接受2026届投递
 风格不限！风格不限！风格不限！
@@ -2152,7 +2061,7 @@
 3.在与上下游充分沟通，了解需求，对齐标准的基础上，跟进并确保最终关卡的落地效果。</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>1.美术相关专业或美术院校毕业优先；
 2.参与过游戏项目的实习/外包经历优先；
@@ -2160,28 +2069,28 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>【策美实习】绑定师（Max/Maya）</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>1.具备扎实的造型能力，对生物解剖有深入的研究；
 2.对人体运动学原理有深入的理解；
@@ -2191,13 +2100,13 @@
 6.简历内请附带作品（并做简要分解说明）。</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>1.负责项目中角色表情/身体/怪物等绑定，并持续迭代优化表现效果和工作流；
 2.配合模型动画等相关环节，做好技术支持。</t>
         </is>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>1.计算机，美术设计，数字媒体等相关专业优先；
 2.有美术基础、技术美术工作或者实习经验优先；
@@ -2206,28 +2115,28 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>绑定师（Max/Maya）</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>1.具备扎实的造型能力，对生物解剖有深入的研究；
 2.对人体运动学原理有深入的理解；
@@ -2237,13 +2146,13 @@
 6.简历内请附带作品（并做简要分解说明）。</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>1.负责项目中角色表情/身体/怪物等绑定，并持续迭代优化表现效果和工作流；
 2.配合模型动画等相关环节，做好技术支持。</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>1.计算机，美术设计，数字媒体等相关专业优先；
 2.有美术基础、技术美术工作或者实习经验优先；
@@ -2252,28 +2161,28 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>2D动画师</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>1.熟悉 Spine、live2d、等制作软件；动画运动规律有较强的基础；
 2.有一定美术基础，对角色和场景的透视关系能准确把握；
@@ -2282,42 +2191,42 @@
 5.熟悉市面上的动画表现风格，有丰富的阅片量。对二次元类角色的动作、表情演出有足够的理解；热爱动画，对乙女向游戏有相关了解。</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>1.熟练使用Spine 或者Live2d 软件制作动画，设计契合角色性格和场景氛围的表演；
 2.配合完成上下游管线的协作需求；
 3.对动效实现有创新想法与积累，关注时下视觉动效的流行趋势与相关信息。</t>
         </is>
       </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>1.计算机、美术设计、数字媒体等相关专业；
 2.有Unity3D项目开发和AE软件经验。</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>【策美实习】2D动画师</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>1.熟悉 Spine、live2d、等制作软件；动画运动规律有较强的基础；
 2.有一定美术基础，对角色和场景的透视关系能准确把握；
@@ -2326,42 +2235,42 @@
 5.熟悉市面上的动画表现风格，有丰富的阅片量。对二次元类角色的动作、表情演出有足够的理解；热爱动画，对乙女向游戏有相关了解。</t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>1.熟练使用Spine 或者Live2d 软件制作动画，设计契合角色性格和场景氛围的表演；
 2.配合完成上下游管线的协作需求；
 3.对动效实现有创新想法与积累，关注时下视觉动效的流行趋势与相关信息。</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>1.计算机、美术设计、数字媒体等相关专业；
 2.有Unity3D项目开发和AE软件经验。</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>CG特效师</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>1.精通Houdini、Maya、Nuke等软件，并熟练掌握Arnold、Karma等主流渲染器的运用; ‌  
 2.拥有快速学习新技术的能力，能够适应各类美术风格的特效制作; 
@@ -2371,7 +2280,7 @@
 PS：简历中请附上代表性作品，如果是团队作品，需明确注释自己具体参与的部分。</t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>1.与各部门同学沟通协作，根据项目风格和特效设计，完成特效相关的制作需求;
 2.参与Cutscene、PV、角色以及怪物相关的特效制作工作; ‌
@@ -2379,7 +2288,7 @@
 4.能够与TA和程序团队进行良好沟通，清晰阐述需求。跟进工具、特效相关脚本及材质的改进与落地工作。</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
         <is>
           <t>1.拥有线下或线上系统性强化学习Houdini的经历;
 2.熟练运用至少两种编程语言，如VEX、Python、C++等; 
@@ -2387,79 +2296,72 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>AudioLLM 研究实习生</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>图形算法工程师</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>博士及以上</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>1. 计算机科学、人工智能、电子工程等相关博士学历
-2. 具备大模型（LLM 或多模态）训练经验，熟悉 Transformer 架构与大规模分布式训练
-3. 深入掌握以下至少一方向
-• 通用音频自监督表征，如 Best-RQ, CLAP, wav2vec bert2.0 等
-• Omni模型架构和多模态RL
-• 语音识别/情感识别/音乐信息检索算法
-4. 精通 Pytorch，具备海量数据处理经验
-5. 具备跨时区协作与良好沟通能力，结果导向，责任心强</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>专注于AudioLLM通用音频理解模型的研究与开发，参与构建下一代音频基础模型和Omni多模态框架，探索语音、音乐、环境声音等多模态音频内容的统一理解建模方法，推动 audio AI 在理解、生成和交互场景中的技术突破。
-核心职责：
-1. 模型架构与训练：负责通用音频理解模型设计与分布式训练优化，实现语音识别、情感分析、音频问答、音乐理解、声音事件检测等多任务统一建模
-2. 数据管线：设计并落地大规模多模态音频数据 pipeline，完成数据对齐、质量控制与自动标注
-3. 跨模态融合：研究音频编码器与大语言模型融合技术，优化跨模态注意力与统一特征表示</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>1. 在 NeurIPS/ICML/ICASSP/ISMIR 等顶级会议发表论文
-2. 负责过百万小时级多类型音频数据管理
-3. 拥有音频文本跨模态对齐、指令微调或多任务学习实践
-4. 在音频 AI 或音乐 AI 领域有开源贡献或技术影响力</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>2026届秋招</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>不限/未提及</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>1）计算机科学、软件工程、数学等相关专业在校学生
+2）具备图形学基础知识，对骨骼动画、几何处理、绑定、物理模拟等细分领域之一有深入理解
+3）熟练掌握C++编程，具备良好的代码规范和调试能力，有较强的工程素养
+4）具备良好的沟通能力和团队协作精神。
+5）对图形学技术充满热情，乐于学习新技术并解决实际问题</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>1）参与图形算法开发和工程落地
+2）参与美术资产制作管线的升级与优化，提升制作效率与质量</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>1）参与过布料解算器的研发，对布料美术效果有理解，熟悉PD、IPC等解算技术
+2）有各种几何表示（点云、网格、多边形等）的处理经验；有曲线曲面的处理经验
+3）熟悉GPU编程，有较好的并行开发能力</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>策略产品实习生（搜推方向）</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>1、2026-2028年毕业，本科及以上学历，如有计算机/算法背景相关专业优先；
 2、有过最少1段互联网方向实习经验，内容社区/游戏社区相关经验优先；
@@ -2469,37 +2371,37 @@
 6、具备快速学习能力和创新思维，能够在快速变化的环境中适应和成长。</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>1、参与米游社社区搜推相关策略的维护和优化，提升社区消费，优化社区氛围；
 2、协同运营/项目组进行游戏相关联运活动在社区内的宣发，包括前置数据分析、实验方案设计、效果复盘等；
 3、 通过数据分析、案例走查、策略优化等，持续改进用户的社区体验，提升社群满意度。</t>
         </is>
       </c>
-      <c r="G45" s="3" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>测试实习生</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上在校大学生，27届及之后毕业，计算机相关专业优先；
 2、对测试有浓厚兴趣，为人踏实，富有责任心；
@@ -2508,49 +2410,49 @@
 5、每周至少4天实习时间，至少实习3个月以上。</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>1、根据需求进行测试设计及测试用例的编写；
 2、执行测试用例并进行缺陷跟踪，跟进上线后的反馈；
 3、参与接口及UI自动化相关的实施工作，及部分测试工具的开发工作。</t>
         </is>
       </c>
-      <c r="G46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>生成式算法研究员实习生（自回归模型方向）</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>1. 计算机科学、数学或相关领域的硕/博在读；
 2. 熟练掌握 VAE,GPT,Diffusion 等生成模型原理，有模型调优经验；
 3. 关注行业前沿进展，了解最新的 auto-regressive 领域进展，有自己的想法并乐于挑战；</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t>探索 auto-regressive 生成模型，在时序生成任务下的表现，包括但不限于视频生成、音频生成、动作生成；</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
         <is>
           <t>1. 对动画、游戏、和AIGC技术有热爱的优先。
 2. 有LLM、视频生成、音频生成、动作生成等领域经验者优先
@@ -2558,28 +2460,28 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>语音/歌声生成实习生</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>1、硕士及以上学历，计算机、数学、通信等相关专业；具备良好的学习能力、逻辑思维能力、沟通协作能力；
 2、熟练使用Python和Pytorch/Tensorflow深度学习框架；
@@ -2590,37 +2492,37 @@
 4、有顶会论文（各类CCF-A会、ICASSP/INTERSPEECH等）优先。</t>
         </is>
       </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t>1、Voice生成算法研究、应用，包括标准TTS / instruct TTS / multi-turn TTS / singing voice synthesis等；
 2、Omni模型算法研究、应用，包括Voice生成能力到omni模型的迁移，understanding-based voice generation等；
 3、参与数据建设的讨论, 包括标准规范制定&amp;优化, 协助数据验收交付。</t>
         </is>
       </c>
-      <c r="G48" s="3" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="G46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>视觉设计实习生（雇主品牌）</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>1.熟练使用Photoshop等主流平面视觉设计相关软件；
 2.热爱设计，渴望不断学习与探索；
@@ -2628,14 +2530,14 @@
 4.具备良好的理解能力和沟通能力，能够同相关方讨论业务需求，提供有效的视觉创意解决方案，完成设计执行工作。</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>1.负责企业雇主品牌及内部企业文化宣传相关设计工作（如公众号长图、内推海报、活动海报等）；
 2.与内容制作团队及业务团队沟通对接，理解需求背景，抓住需求要点，完成相关视觉工作；
 3.参与项目讨论，与团队紧密配合，分析总结并持续优化设计。</t>
         </is>
       </c>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>1.有3D建模相关能力；
 2.参与过视觉设计相关的实习/外包项目（不限行业）；
@@ -2643,28 +2545,28 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>AIGC视觉算法实习生-崩坏：因缘精灵</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>1.具备扎实的算法基础，计算机、人工智能、电子信息等相关专业背景优先；
 2.具备较好的沟通与理解能力，能够与美术清晰的沟通并理解需求，将其转化为算法问题，并给出行之有效的解决方案；
@@ -2674,7 +2576,7 @@
 6.对游戏有兴趣和热爱，愿意探索AI技术在游戏领域的各种可能性。</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>1.负责美术AI工具的全链路构建（包括模型训练、推理管线构建、生成结果调优与前端页面构建等内容）；
 2.使用有限数据定向微调AI模型（Diffusion、Autoregressive或其他），给出严谨的实验记录与分析；
@@ -2682,42 +2584,42 @@
 4.构建符合美术使用习惯的AI生成前端，确保AI工具的易用性。</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>动作生成实习生（交互方向）</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>1.计算机科学、数学、统计学或相关领域的硕士或博士研究生在读，实习时长3个月以上；
 2.具备强化学习相关经验，包括但不限于模拟、编辑、控制与生成等；
 3.了解基本的生成模型算法，比如VAE，Diffusion，Autoregressive等；</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t>基于Isaac Gym等物理仿真平台，研究手与物体进行交互的动作生成算法；探索如何利用强化学习和生成模型，提升手物交互动作的物理合理性与美观度；</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>1.熟悉强化学习在动作生成上的一些算法，比如DeepMimic，AMP，PHC等。
 2.熟悉Isaac Lab，MuJoCo等物理仿真环境，能实现humanoid模型构建到motion mimic的完整流程。
@@ -2725,28 +2627,28 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>美术测试工程师实习生</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>质量管理类</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>1. 计算机/艺术类相关专业优先；
 2. 有较强的逻辑和思辨能力，耐心细致，有责任心，有较强的问题发现和解决能力；
@@ -2756,7 +2658,7 @@
 6. 热爱游戏，有丰富的游戏经验，能持续输出游戏体验与易用性的优化建议。</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>1. 对游戏内美术资产、效果表现进行测试，了解相关内容的制作、以及逻辑实现，关注性能，保障品质；
 2. 在测试工作中熟练运用Unity引擎工具、美术配置、美术资源检查等；
@@ -2764,30 +2666,30 @@
 4. 能够暴露管线问题，并协同上游或者跨部门进行管线优化。</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="G50" s="3" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>前端开发实习生</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>1、深刻理解计算机原理、数据结构、常用算法和常见设计模式；
 2、熟悉ES6/CSS3/HTML5 等基础语法和开发调试技术，熟悉Vue或者React框架；
@@ -2795,37 +2697,37 @@
 4、有WEB前端项目实战开发经验可加分；</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>1、负责游戏研发效能工具的前端工作，帮助提升游戏研发效率;
 2、与产品经理、UX设计人员共同参与产品评审，设计技术方案并保质保量的落地；
 3、持续优化用户体验，并保证兼容性、执行效率和可扩展性；</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>渲染算法实习生（2DGS与实时渲染）</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>1、扎实的编程能力及计算机基础；
 2、在实时渲染、离线渲染方面有较为深入的知识储备和技术积累；
@@ -2833,39 +2735,39 @@
 4、有 3DGS 或 2DGS 相关项目经验、论文发表者优先，包括静态或动态场景下的渲染、重建、重光照、材质贴图等相关方向。</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>面向实时游戏产品的需求，探索基于 2DGS 的模型表示、实时渲染相关技术方案。</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>游戏玩家 &amp; 对主流游戏渲染技术有关注者优先。</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>BP（AI方向）</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>面向2026届及之后毕业的同学。可以实习。不限专业背景。
 希望你：
@@ -2875,7 +2777,7 @@
 4，懂AI：对AI的工作原理有探究其所以然的动力。参与过AI相关实践项目为大加分项。</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>方向一：协调洞察+策略分析
 1，喜欢并擅长沟通、在复杂信息中捕捉关键需求的你，作为组织与业务的关键桥梁：
@@ -2884,34 +2786,34 @@
 适合脑洞大开且技能点满的你！希望你的创意能紧扣Z世代脉搏，不论是活人感文案、爆款活动还是长短视频策划都能灵感不断，用真挚的内容讲好故事；同时希望你具备超强行动力，敢想敢干，通过与团队成员合理的分工与协作让创意不止停留在纸面，而是变成一次有价值的培训、一轮卓有成效的宣发、一场令人印象深刻的活动。</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>有PM/运营/发行/招聘/BP岗位实习经历为加分项</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>RLHF研究员</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>1. 硕士/博士及以上学历（或在读），计算机/数学等相关专业优先；
 2. 熟悉LLM、RL、Diffusion领域的技术, 熟悉DPO,PPO,GRPO等RLHF算法；
@@ -2919,41 +2821,41 @@
 4. 具备卓越的实验分析与问题解决能力，有创新思维，能够良好沟通、与团队成员高效协作；</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>1.面向三维生成大模型，利用强化学习算法进行偏好对齐，提升模型生成质量；
 2.探索3D领域的RL scaling问题，提升模型reasoning能力；</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>1.有AI Alignment相关研究或大模型应用项目经历的优先；
 2.有 ICML、ICLR、NeurIPS、ACL、CVPR、AAAI 等顶级学术会议发表过有影响力研究成果的优先；</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>生成式算法实习生（Diffusion MoE方向）</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>1.26 届或以后，计算机科学、人工智能、数学、统计学或相关专业硕士 / 博士在读，实习期 3 个月及以上；
 2.熟悉 扩散模型、表征学习或 MoE 架构 等相关理论与实践；
@@ -2963,7 +2865,7 @@
 6.具备良好的沟通协作与执行能力，责任心强，学习能力突出。</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>围绕生成式模型的前沿研究与落地探索，聚焦于 模型架构、时序建模与表征学习 等核心问题，推动生成模型在时间序列场景下的能力提升。
 根据研究兴趣与团队方向，实习生可参与以下任一或多个方向的探索：
@@ -2979,7 +2881,7 @@
   -探索 表征空间与生成任务的结合，推动生成模型在可控性、泛化与迁移性方面的提升</t>
         </is>
       </c>
-      <c r="G57" s="3" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>1.有视频生成、音频生成、动作生成或相关时序建模经验；
 2.在 NeurIPS / ICLR / CVPR / ICCV 等顶会发表过相关论文；
@@ -2989,28 +2891,28 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>游戏安全工程师</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>2026届秋招</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>1、熟练掌握C/C++的开发，了解现代C++，有一定的数据结构、算法基础；
 2、较强的学习能力和综合分析能力；
@@ -3018,7 +2920,7 @@
 4、对软件逆向感兴趣，有一定的逆向经验。</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>1、 分析游戏外挂的实现原理。
 2、 开发各种平台（pc、android、ios等）的作弊检测和对抗技术。
@@ -3027,30 +2929,30 @@
 5、学习研究编译器优化or混淆的各种技术及实现。</t>
         </is>
       </c>
-      <c r="G58" s="3" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>游戏数据运营分析实习生</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>1、2026-2028应届毕业生，数学统计、计算机科学或相关定量领域专业，掌握常见量化分析与数据挖掘方法；
 2、熟练使用SQL、Python等数据处理、量化分析与建模工具；
@@ -3058,7 +2960,7 @@
 4、热爱游戏，重度二次元游戏玩家优先。</t>
         </is>
       </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t>1、搭建游戏内玩法的数据建模与健康度监控，评估其长期可持续性与平衡性；
 2、与游戏项目组合作，针对游戏生态中的关键性问题进行深度专题分析，挖掘背后潜在机遇，并形成可落地的优化建议；
@@ -3067,30 +2969,30 @@
 5、协同产品、研发团队，规划和验收玩法相关功能的数据埋点，确保数据采集的准确性和完整性。</t>
         </is>
       </c>
-      <c r="G59" s="3" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="G57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>市场营销策划实习生（AI技术应用方向）-崩坏：因缘精灵</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>1、信息与计算科学、数据科学与大数据、人工智能等相关专业背景优先。
 2、关注游戏行业市场营销动作，对AI与市场营销结合的探索有兴趣。
@@ -3099,7 +3001,7 @@
 5、具有开拓精神和owner意识，沟通清晰且执行力强。</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>1、研究前沿AI技术，探索其在游戏市场营销管线中的应用场景。
 2、共同迭代现有市场内容创作及分发模式，打造更精准、更高效、满足多场景交付的内容生态模型。
@@ -3107,30 +3009,78 @@
 4、基于具体需求，协同程序和算法团队推动技术方案，结合业务场景进行技术选型与模型调优。</t>
         </is>
       </c>
-      <c r="G60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="G58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>图形数据算法实习生（3D生成）</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>程序&amp;技术类</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>本科及以上</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>- 本科及以上学历，计算机科学、数字媒体等相关专业优先
+  - 熟练掌握Python编程，了解C++者优先
+  - 熟悉3D图形学基础，了解多边形网格、材质渲染、光照模型等概念
+  - 具备良好的实验分析和问题解决能力
+必备技能：
+  - 熟练掌握Blender和bpy API，能够编写自动化脚本处理3D场景
+  - 精通至少一种3D数据处理库（trimesh/libigl等）
+  - 熟悉glTF/GLB数据格式，能够使用pygltf等库进行数据读写和修改操作</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>- 开发和优化AI 3D大模型的数据处理流程，提升数据自动化处理效率
+- 构建、清洗和标注3D数据集，为模型训练提供高质量数据</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>- 有3D数据集构建经验
+  - 具备CUDA编程或并行计算经验
+  - 了解可微渲染、光栅化等渲染技术
+  - 熟悉拓扑算法和优化技术</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>增长洞察数据分析实习生</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>1、2026-2028应届毕业生，数学统计、计算机科学或相关定量领域专业，掌握常见量化分析与数据挖掘方法；
 2、熟练使用SQL、Python等数据处理、量化分析与建模工具；
@@ -3138,7 +3088,7 @@
 4、热爱游戏，熟悉游戏社区者优先。</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>1、基于宏观趋势、游戏内容、站内触达，实验增量等视角，清晰梳理业务指标体系并对结构趋势有洞察理解；
 2、与游戏项目组深度协作，分析游戏玩家行为并洞察深层需求，从玩家画像与生命周期的视角出发，量化价值空间并给出产品化建议；
@@ -3147,30 +3097,30 @@
 5、寻找游戏社区促用增价值的潜力机会，结合市场空间与科学量化方法形成增量空间判断，深入数据洞察与团队工作制定有效策略。</t>
         </is>
       </c>
-      <c r="G61" s="3" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="G60" s="3" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>官方宣发内容编导实习生-崩坏：星穹铁道</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>1、有视频脚本撰写能力，文字基本工扎实，表达风格简洁直白；
 2、有一定的传播嗅觉，能够从繁杂的文本设定中提炼出角色足以打动受众的特质；
@@ -3180,37 +3130,37 @@
 6、传播、广告、编导、数媒、新闻、中文专业者优先，有游戏UGC视频（包括但不限于《崩坏：星穹铁道》）创作经历者优先。</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>1、参与官方宣发内容的前期创意与方案设计，包括但不限于各类PV、创意短片、前瞻直播、事件营销等；
 2、从未上线的游戏内容中提炼或制造出明确的特色和卖点，有针对性地设计创意内容进行放大并准确传达给受众；
 3、以独当一面的视频内容编导为目标学习成长。</t>
         </is>
       </c>
-      <c r="G62" s="3" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>AI3D动画解算实习生</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>1、专业背景：动画、数字媒体、计算机图形学、游戏/影视相关专业优先；
 2、掌握至少一种主流DCC工具的动画与绑定工作流，Maya优先，了解 MotionBuilder/Blender 加分；
@@ -3218,7 +3168,7 @@
 4、能看懂并维护规范的骨骼命名与层级结构，了解蒙皮权重与权重转移。</t>
         </is>
       </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>1、批量执行动画 Retarget 工作：根据项目规范，将源动画高质量迁移至目标骨架/角色，并保持动作风格一致；
 2、绑定完整性与一致性检查：核对骨骼层级、命名规范、权重分布、控制器可达性与变换冻结等；
@@ -3226,7 +3176,7 @@
 4、工具与流程优化：协助搭建/完善Retarget批处理管线与校验脚本，沉淀复用模板与检查清单。</t>
         </is>
       </c>
-      <c r="G63" s="3" t="inlineStr">
+      <c r="G62" s="3" t="inlineStr">
         <is>
           <t>1、了解 Unreal Engine/Unity 动画Retarget体系，如UE Retargeter/IK Retargeter、Unity Humanoid/Avatar；
 2、有使用 HumanIK、Advanced Skeleton、Epic Skeleton 或 Mixamo 等生态经验；
@@ -3237,65 +3187,65 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>多模态情绪标注实习生</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>运营类</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>研究生及以上</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>1、27届及以后，表演、导演、编导、文学在读本科及研究生，每周（包括周末）有固定的实习时间；
 2、逻辑清晰、责任心强、拥有良好的沟通表达及情绪感知能力，擅于捕捉与分析内容及情感；
 3、具备较强的时间管理能力和应急处理能力，有良好的职业操守及保密意识；</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>1、话题整理：前置和对话人进行话题沟通，适当给到合理建议引导，确保录制反向符合预期；
 2、数据标注：理解对话人的语意，挖掘人物情感走向，分析人物情绪等级，现场对数据进行时实标注；
 3、数据整理：数据标注后，整理并反馈情绪覆盖维度，协助标注项目流程管理。</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="G63" s="3" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>LLM数据处理实习生</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>职位要求：
 1、计算机/软件工程等相关专业本科以上学历，拥有LLM相关专业硕士/博士学位者优先；
@@ -3304,7 +3254,7 @@
 4、具备优秀的分析和解决问题能力，良好的团队合作精神及沟通意识；</t>
         </is>
       </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>职位描述：
 1、参与LLM大模型的数据准备、数据清洗、数据实验等工作，构建高质量的LLM数据集
@@ -3312,7 +3262,7 @@
 3、构建高质量LLM数据产出的Pipeline，包括文本数据质量、Pipeline的优化等；</t>
         </is>
       </c>
-      <c r="G65" s="3" t="inlineStr">
+      <c r="G64" s="3" t="inlineStr">
         <is>
           <t>具备以下一个或者多个条件者优先： 
 1、有前沿模型研发经验，涉及数据、评估、平台相关工作； 
@@ -3321,28 +3271,28 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>实时超分插帧算法实习生</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，计算机科学、图形学、人工智能相关专业；
 2、熟悉超分、插帧相关的机器学习、神经网络技术，熟练掌握相关 python、pytorch 工程开发技能；
@@ -3351,7 +3301,7 @@
 5、有 PC 端或移动端超分、插帧相关项目经历或论文发表优先。</t>
         </is>
       </c>
-      <c r="F66" s="3" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t>1、参与面向 PC、Console 的高质量实时超分或插帧算法开发；
 2、编写模型、训练代码，使用公司内项目数据训练超分、插帧模型；
@@ -3360,35 +3310,35 @@
 5、与同事合作完成模型优化、部署工作。</t>
         </is>
       </c>
-      <c r="G66" s="3" t="inlineStr">
+      <c r="G65" s="3" t="inlineStr">
         <is>
           <t>1、熟练掌握 D3D12 或 CUDA 底层 API 及相关工程原理；
 2、了解 C++ 程序和 GPU 程序逆向分析相关技术。</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>游戏客户端开发实习生（工具方向）</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，计算机或相关专业，2027届及之后毕业的在校同学；
 2、至少了解一门C系语言，至少精通一门面向对象的编程语言，并深入了解其思想、原理和底层细节；
@@ -3397,7 +3347,7 @@
 5、实习时长不低于3个月，每周出勤至少4天（论文等学校特殊情况可灵活沟通）。</t>
         </is>
       </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t>1、你将参与大型预研项目海量内容的工业化生产工具开发；
 2、你将参与设计和实现工具来支撑游戏内容的不同模块，如战斗、关卡、剧情演出、任务等；
@@ -3406,7 +3356,7 @@
 5、还将掌握辨别对应内容制作管线中存在的效率和质量问题，主动寻找和提供改进方案。</t>
         </is>
       </c>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="G66" s="3" t="inlineStr">
         <is>
           <t>1、有实际游戏项目的开发经历或实习经历；
 2、接触学习过游戏开发引擎（比如Unity、虚幻引擎）；
@@ -3414,35 +3364,35 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>AI人文训练师实习生</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>1、具有良好的文字功底，能够适应不同风格的文案要求；
 2、对游戏和AI交互感兴趣，有探索的好奇心；
 3、具有良好的逻辑能力和沟通能力；</t>
         </is>
       </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t>你的核心职责是通过构建和评估高质量数据，来塑造和优化AI角色的表现。具体工作包括：
 1.创作高质量的训练数据：围绕角色设定（性格、背景、世界观等），撰写大量符合其风格的对话范例，作为模型训练的核心素材。
@@ -3450,35 +3400,35 @@
 3.参与AI效果评测：执行系统性的评测方案，全面检验AI角色的交互能力和表现，识别问题并提出具体的优化建议。</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="G67" s="3" t="inlineStr">
         <is>
           <t>1.对心理学、社会学、哲学等领域有系统性了解，或者有较大的阅读量；
 2、熟悉AIGC，对大语言模型（LLM）有了解或实践经验。</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>涉外法务实习生（业务项目支持方向）</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E68" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，2027届毕业，法学相关专业；
 2、熟悉游戏或互联网行业，有大型互联网公司实习经历者优先；
@@ -3487,7 +3437,7 @@
 5、实习期不少于6个月，每周4天以上出勤（论文等学校特殊情况可灵活沟通），可尽快到岗。</t>
         </is>
       </c>
-      <c r="F69" s="3" t="inlineStr">
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t>1. 负责或协助处理各类中英合同及其他法律文件的起草、审核、修改，谈判及标准合同制定；
 2. 负责或协助识别、防范和处置游戏及相关业务的境内外合规风险，保障产品及业务安全运营；
@@ -3496,35 +3446,35 @@
 5. 跟进日常交办的其他法律合规工作。</t>
         </is>
       </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="G68" s="3" t="inlineStr">
         <is>
           <t>1、能用日语或韩语作为工作语言。
 2、有境外求学背景或实习经历。</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>涉外法务实习生（数据隐私合规方向）</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>1. 法律/法学本科及以上学历，熟悉数据隐私相关法律法规；
 2. 优秀英文能力，可作为工作语言；
@@ -3532,7 +3482,7 @@
 4. 实习期不少于6个月，每周4天以上出勤（论文等学校特殊情况可灵活沟通），可尽快到岗。</t>
         </is>
       </c>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t>1. 负责或协助中英文隐私政策及其他数据保护相关法律文件的起草、审核、修订及标准文件制定；
 2. 负责或协助支持游戏及相关产品或业务的合规工作，对标法律法规、行业合规要求，业界最佳实践，识别差距，制定优化计划，推动落地；
@@ -3541,7 +3491,7 @@
 5. 跟进日常交办的其他法律合规工作。</t>
         </is>
       </c>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>1. 有数据法学、网络法或信息安全相关学习、培训或复合专业背景；
 2. 在境外知名院校取得LLM或JD学位；
@@ -3550,28 +3500,28 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>涉外法务实习生（知识产权及维权方向）</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，2027届毕业，知识产权相关专业；
 2、熟悉游戏或互联网行业，有大型互联网公司实习经历者优先；
@@ -3580,7 +3530,7 @@
 5、实习期不少于6个月，每周4天以上出勤（论文等学校特殊情况可灵活沟通），可尽快到岗。</t>
         </is>
       </c>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>1、高效协助处理公司知识产权的申请与维护工作；
 2、高效反馈业务部门的日常知识产权相关问题咨询；
@@ -3589,35 +3539,35 @@
 5、跟进日常交办的其他法律合规工作。</t>
         </is>
       </c>
-      <c r="G71" s="3" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>1、有境内外知名律所知识产权或争议解决部门实习经历；
 2、有境外求学背景或实习经历。</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>海外社区内容运营实习生</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>运营类</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>1、2026-2028年毕业、全日制本科及以上在读生；
 2、具有内容撰写能力，创意思维和创新精神，对图文、视频内容有较好的审美和质量把控能力，有原神游戏经验者优先；
@@ -3625,37 +3575,37 @@
 4、善于创新，脑洞大，能够基于游戏和用户需求，基于图文、视频属性，企划内容和活动，助力内容对价值驱动。</t>
         </is>
       </c>
-      <c r="F72" s="3" t="inlineStr">
+      <c r="F71" s="3" t="inlineStr">
         <is>
           <t>1、负责米哈游游戏版本内容提炼，基于内容提炼，落地内容品类供给策略；
 2、负责米家游戏（原神等）的图文、视频本地化制作、发布工作，供给海外社区内容；
 3、负责境外社区内容供给活动策划&amp;执行工作，供给海外社区内容。</t>
         </is>
       </c>
-      <c r="G72" s="3" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
+      <c r="G71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>用户产品经理实习生（社区）</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t>1、2026-2028届毕业生，本科及以上学历，理工类专业背景优先；
 2、对产品有热情和好奇心，对用户增长、社区产品感兴趣，善于主动发现问题解决问题；
@@ -3663,7 +3613,7 @@
 4、有一定的数据分析能力，能深刻理解业务和数据之间的联系。</t>
         </is>
       </c>
-      <c r="F73" s="3" t="inlineStr">
+      <c r="F72" s="3" t="inlineStr">
         <is>
           <t>1、我们是一个优秀又有趣的产品团队，我们深入体验游戏，了解玩家并给玩家创造价值，我们帮助玩家解决游戏问题和卡点、共同参与游戏讨论和交友，我们在打造一个所有米哈游游戏用户喜爱、需要、友好的社区产品，欢迎你成为我们的一份子；
 2、我们需要深入了解玩家诉求和行业现状提出产品构想，各社区场景和游戏数据会深度结合，挖掘更多的游戏用户需求场景，提供高效好用的产品工具/攻略/搜索/消费等产品服务；
@@ -3671,30 +3621,30 @@
 4、我们希望你理解米哈游游戏的模式特点（原神、星铁、绝区零等），同时能结合社区产品的优势，能感受玩家/创作者/项目组/内容平台等不同视角，一起推动产品落地及效果验证。</t>
         </is>
       </c>
-      <c r="G73" s="3" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
+      <c r="G72" s="3" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>境内法务实习生-知识产权方向</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E74" s="3" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr">
         <is>
           <t>1、硕士及以上学历，2027届及以后毕业，法律/法学相关专业；
 2、有互联网头部企业/律所/代理所知识产权、争议解决等相关实习经验优先；
@@ -3703,7 +3653,7 @@
 5、资深游戏玩家。</t>
         </is>
       </c>
-      <c r="F74" s="3" t="inlineStr">
+      <c r="F73" s="3" t="inlineStr">
         <is>
           <t>1、负责/协助处理版权申请、商标申请等各类知识产权申请事项；
 2、负责/协助处理侵权举报工作；
@@ -3712,34 +3662,34 @@
 5、日常交办的其他工作。</t>
         </is>
       </c>
-      <c r="G74" s="3" t="inlineStr">
+      <c r="G73" s="3" t="inlineStr">
         <is>
           <t>1、二次元爱好者、米哈游游戏玩家优先；</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>3D 生成实习生</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E75" s="3" t="inlineStr">
+      <c r="E74" s="3" t="inlineStr">
         <is>
           <t>1、计算机图形学或计算机视觉等相关专业优先；
 2、拥有实际的3D项目开发经验；
@@ -3747,13 +3697,13 @@
 4、对技术充满热情，思维清晰，具有很好的问题分析推断能力、良好的沟通表达能力和合作能力。</t>
         </is>
       </c>
-      <c r="F75" s="3" t="inlineStr">
+      <c r="F74" s="3" t="inlineStr">
         <is>
           <t>1、研究资产级三维生成大模型算法，提升artist-like mesh的生成能力；
 2、探索多模态输入和条件控制，提升生成结果的规整性和可控性；</t>
         </is>
       </c>
-      <c r="G75" s="3" t="inlineStr">
+      <c r="G74" s="3" t="inlineStr">
         <is>
           <t>1、有LLM/VLM训练或应用经验；
 2、有2D/3D特征提取或分割项目经验；
@@ -3761,28 +3711,28 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>RLHF 强化学习实习生（生成方向）</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr">
         <is>
           <t>1、硕士及以上学历，计算机科学、数学、人工智能等相关专业优先；
 2、熟悉大模型相关技术栈，对 LLM / RL 中至少一个方向有扎实理解与实践经验；理解并能实现/调试 PPO、DPO、GRPO 等 RLHF/在线强化学习算法；
@@ -3791,14 +3741,14 @@
 5、具备良好的沟通协作能力，能够与研究与工程团队高效配合推进项目。</t>
         </is>
       </c>
-      <c r="F76" s="3" t="inlineStr">
+      <c r="F75" s="3" t="inlineStr">
         <is>
           <t>1、面向三维生成大模型，开展基于强化学习的偏好对齐（Preference Alignment）研究与落地，提升生成质量与稳定性；
 2、研究并验证 3D 领域的 RL Scaling 方法（如数据规模、采样策略、奖励建模、训练等），提升模型的推理/规划能力与泛化表现；
 3、跟进并复现前沿 RLHF/Alignment 工作，设计实验、分析结果并持续迭代训练策略与系统实现。</t>
         </is>
       </c>
-      <c r="G76" s="3" t="inlineStr">
+      <c r="G75" s="3" t="inlineStr">
         <is>
           <t>1、有 AI Alignment / RLHF 相关研究或大模型应用项目经验者优先；
 2、在 ICML、ICLR、NeurIPS、ACL、CVPR、AAAI 等顶级会议/期刊发表过有影响力研究成果者优先；
@@ -3806,28 +3756,28 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>3D生成实习生</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
+      <c r="E76" s="3" t="inlineStr">
         <is>
           <t>1、熟练使用 PyTorch，具备独立调试模型能力；
 2、熟悉至少一种扩散模型结构：UNet / DiT / Transformer；
@@ -3835,7 +3785,7 @@
 4、具备基础 3D 处理能力，至少熟悉以下任一内容：Open3D、trimesh、pytorch3d、点云 / mesh / voxel 数据格式。</t>
         </is>
       </c>
-      <c r="F77" s="3" t="inlineStr">
+      <c r="F76" s="3" t="inlineStr">
         <is>
           <t>1、参与图生 3D（Image-to-3D）模型的 condition 控制研究，包括图像条件、文本条件、深度/法线/分割等多模态提示；
 2、基于现有 3D 生成模型（如 3dshape2vecset/trellis），进行局部模块微调、LoRA 调优或条件注入实验；
@@ -3843,7 +3793,7 @@
 4、设计并实现自定义 Conditioning 方法，如：图生 3D 的 ControlNet-like 模块、UNet/DiT 中的条件 token 注入、lora方式。</t>
         </is>
       </c>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="G76" s="3" t="inlineStr">
         <is>
           <t>1、ControlNet 或 Condition 模块结构；
 2、LoRA / DreamBooth / Adapter 微调；
@@ -3851,28 +3801,28 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>AI产品经理实习生（数据向）</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
+      <c r="E77" s="3" t="inlineStr">
         <is>
           <t>1、本科或硕士在读，计算机、人工智能、数据科学、数字媒体、工业设计等相关专业
 2、具备良好的数据敏感度，理解基本的数据采集、清洗、分析流程
@@ -3881,14 +3831,14 @@
 5、具备较好的逻辑思维能力、沟通能力与执行力，能够与算法团队协作</t>
         </is>
       </c>
-      <c r="F78" s="3" t="inlineStr">
+      <c r="F77" s="3" t="inlineStr">
         <is>
           <t>1、参与AI3D数据体系建设，包括数据采集、标注规范制定、数据筛查与数据处理工作
 2、协助整理和分析各类3D相关数据（如mesh、拓扑、图像等），打通上下游，支持算法模型迭代与产品优化
 3、构建模型测试集与基础评测指标，跟进模型效果，协助分析模型问题并提出数据层面的优化方向</t>
         </is>
       </c>
-      <c r="G78" s="3" t="inlineStr">
+      <c r="G77" s="3" t="inlineStr">
         <is>
           <t>1、有 AI / 机器学习 / 计算机视觉相关基础，了解模型训练和评测的基本概念
 2、有3D数据标注、数据平台或模型评测相关经验
@@ -3896,28 +3846,28 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>AI产品实习生</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，数字媒体艺术、游戏设计或相关专业背景优先；
 2、熟悉游戏美术制作流程，掌握建模基础，能熟练操作至少一种主流DCC工具（如Maya、Blender、3ds Max、ZBrush等）；
@@ -3925,37 +3875,37 @@
 4、具备基本的产品调研与用户研究方法论，能独立完成问卷设计、访谈执行与数据分析；有AI类产品、游戏美术产品或B端项目相关实习经验者优先</t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr">
+      <c r="F78" s="3" t="inlineStr">
         <is>
           <t>1、负责AI3D产品及游戏美术相关AI产品的市场调研与功能评测，独立输出测试报告、竞品分析文档；
 2、协助开展ToB类AI 3D产品的推广运营与用户研究工作，收集用户反馈，挖掘用户需求与使用场景，形成有效的用户洞察报告；
 3、与算法和数据团队协作，深入理解AI模型能力边界、技术特性及数据依赖，参与训练数据的溯源、评估、筛选等环节。</t>
         </is>
       </c>
-      <c r="G79" s="3" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="G78" s="3" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>公共事务实习生</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
+      <c r="E79" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，2027 届毕业生，专业不限，社会学、新闻传播学类、法学、公共管理类、统计学、网络空间安全、计算机科学类相关专业者优先；
 2、熟悉游戏、互联网文娱或人工智能相关行业，有大型互联网公司相关实习经历者优先；
@@ -3963,7 +3913,7 @@
 4、实习期不少于 6 个月，每周出勤 4 天以上（考试或论文等学校特殊情况可灵活沟通），能够尽快到岗者优先。</t>
         </is>
       </c>
-      <c r="F80" s="3" t="inlineStr">
+      <c r="F79" s="3" t="inlineStr">
         <is>
           <t>通过实习，你可以：
 1、沉淀深刻的行业洞察： 通过对行业政策与监管逻辑的梳理，对游戏行业发展建立系统性认知；
@@ -3980,30 +3930,30 @@
 4、支持部门内部日常事务性工作。</t>
         </is>
       </c>
-      <c r="G80" s="3" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="G79" s="3" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>AI产品经理实习生（国际化社媒方向）</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
+      <c r="E80" s="3" t="inlineStr">
         <is>
           <t>- 本科及以上学历，计算机、数据、市场营销、媒体传播等相关专业优先
 - 熟悉国际热门的社交媒体如 YouTube, Twitter(X), Instagram, Tiktok 等
@@ -4013,7 +3963,7 @@
 - 对游戏行业和社区文化有基本了解</t>
         </is>
       </c>
-      <c r="F81" s="3" t="inlineStr">
+      <c r="F80" s="3" t="inlineStr">
         <is>
           <t>- 协助搭建全球化社交媒体多平台自动发布流程，优化内容分发效率。
 - 协助品牌社群团队智能化流程设计，利用AI工具优化日常任务，设计和实施自动化工作流，提升团队效率。
@@ -4021,30 +3971,30 @@
 - 协助API集成和自动化脚本开发</t>
         </is>
       </c>
-      <c r="G81" s="3" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="G80" s="3" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>3D生成实习生（资产生成/虚拟人角色/生成模型探索）</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
+      <c r="E81" s="3" t="inlineStr">
         <is>
           <t>1、计算机图形学方向or3D方向，对生成or动画orAI等有一定了解；
 2、具有较强的探索精神和编程实现能力；
@@ -4052,7 +4002,7 @@
 4.具备良好的逻辑思维和分析问题能力，对工作充满激情。</t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr">
+      <c r="F81" s="3" t="inlineStr">
         <is>
           <t>围绕生成的前沿研究与落地探索，实习生可选择参与以下任一或多个方向的探索：
 1、参与图生 3D（Image-to-3D）模型的 condition 控制研究，包括图像条件、文本条件、深度/法线/分割等多模态提示；
@@ -4061,30 +4011,30 @@
 4、围绕生成式模型的前沿研究与落地探索，聚焦于模型架构、时序建模与表征学习 等核心问题，推动生成模型在时间序列场景下的能力提升，包含：Diffusion MoE 方向、时序扩散生成方向、表征学习方向。</t>
         </is>
       </c>
-      <c r="G82" s="3" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="G81" s="3" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>AIGC算法实习生（3D方向）</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
+      <c r="E82" s="3" t="inlineStr">
         <is>
           <t>1. 计算机，人工智能，电子信息等相关专业硕士及以上学历；
 2. 熟悉图像相关技术路线，精通AIGC、计算机视觉、多模态等相关技术领域；
@@ -4093,37 +4043,37 @@
 5. 具备较强的学习能力，清晰的逻辑思维能力和优秀的沟通能力。</t>
         </is>
       </c>
-      <c r="F83" s="3" t="inlineStr">
+      <c r="F82" s="3" t="inlineStr">
         <is>
           <t>1. 针对业务需求，定向微调AI图像生成模型；
 2. 负责自动/半自动3D资产生成的工作流探索、构建、优化，以提高AI3D生成资产的可用性；
 3. 持续关注AIGC领域最新技术动态，快速评估并落地前沿算法到实际业务场景；</t>
         </is>
       </c>
-      <c r="G83" s="3" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="G82" s="3" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>公共事务-社会责任与公益项目方向</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E84" s="3" t="inlineStr">
+      <c r="E83" s="3" t="inlineStr">
         <is>
           <t>1、2027届本科或硕士在读，慈善管理、社会工作、社会学、公共管理等相关专业。
 2、对企业社会责任（CSR）、可持续发展、公益慈善等领域有浓厚兴趣，具备基础认知；有校园公益社团、志愿服务、CSR相关实习或项目经历者优先。
@@ -4133,7 +4083,7 @@
 6、实习期不少于 6 个月，每周出勤 4 天以上（考试或论文等学校特殊情况可灵活沟通），能够尽快到岗者优先。</t>
         </is>
       </c>
-      <c r="F84" s="3" t="inlineStr">
+      <c r="F83" s="3" t="inlineStr">
         <is>
           <t>岗位描述：
 我们正在寻找一位富有社会责任感、关注可持续发展议题、并对公益事业充满热情的2027届在校生加入我们的公共事务团队。作为社会责任与公益项目实习生，你将深度参与公司公益项目策划、执行与传播工作，协助推动企业与社区、非营利组织及利益相关方的良性互动，为深度了解企业社会责任实践、项目管理和公共事务经验的积累更多经验。
@@ -4145,30 +4095,30 @@
 5、协助完成其他公共事务及公益项目相关辅助工作。</t>
         </is>
       </c>
-      <c r="G84" s="3" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="G83" s="3" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>境内法务实习生（数据合规）</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E85" s="3" t="inlineStr">
+      <c r="E84" s="3" t="inlineStr">
         <is>
           <t>1、硕士及以上学历，2027届法律/法学相关专业；
 2、有互联网头部企业/律所相关实习经验优先；
@@ -4177,7 +4127,7 @@
 5、资深游戏玩家。</t>
         </is>
       </c>
-      <c r="F85" s="3" t="inlineStr">
+      <c r="F84" s="3" t="inlineStr">
         <is>
           <t>1、协助参与新产品、产品新功能和其他产品相关事项的数据合规及人工智能（AI）合规评估，确保符合我国个人信息保护、数据合规及AI合规的法律法规相关要求；
 2、参与境内数据合规及AI合规体系完善与合规落地相关项目，提供团队内和跨团队协作支持；
@@ -4186,73 +4136,35 @@
 5、日常交办的其他法律合规事务。</t>
         </is>
       </c>
-      <c r="G85" s="3" t="inlineStr">
+      <c r="G84" s="3" t="inlineStr">
         <is>
           <t>1、二次元爱好者或米哈游资深游戏玩家；
 2、数据合规实习相关经历/能力（以下任一即可）：参与数据合规或AI合规相关落地项目的，有CCRC-PIPP或IAPP/CN相关证书的，有安全或技术背景（或掌握基础编程能力/了解相关技术）。</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>玩家运营实习生-绝区零</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>运营类</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>不限/未提及</t>
-        </is>
-      </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>1. 2027/2028届在读，专业不限；可稳定实习3个月及以上，每周出勤4~5天（不符合请勿投递，望理解）；
-2. 热爱二次元，熟悉玩家群体、有绝区零深度体验经历优先；
-3. 有游戏行业实习经验者优先，尤其是有社区/社群、内容运营、创作者维系执行经历；
-4. 文字表达与信息整合能力强，有优秀的自我驱动力、团队协作能力及跨部门推动力；具备基础数据敏感度与复盘意识。</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="inlineStr">
-        <is>
-          <t>1. 参与版本/活动/角色相关内容的宣发节奏规划，协助撰写与发布公告、蓝贴与社区活动等内容；保证宣传内容的质量与触达效果，根据实际效果进行复盘与优化；
-2. 负责核心玩家群体与创作者的维系、发掘、建联与培养等相关工作，能根据核心玩家的诉求优化激励机制，增加其粘性与产出贡献；
-3. 参与维护官方社区、社群的日常运营，负责维系玩家与产品间的有效的反馈与沟通渠道；建立并维护良好的社区氛围，维护和提升游戏口碑。</t>
-        </is>
-      </c>
-      <c r="G86" s="3" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>招聘HR（校招方向）</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="E85" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历在校生，专业不限，27届28届均可。
 2、有想法有创意，热爱校园方向招聘活动
@@ -4260,7 +4172,7 @@
 4、要求2月能够到岗，至少实习3个月</t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr">
+      <c r="F85" s="3" t="inlineStr">
         <is>
           <t>1、协助策划、宣传、组织、落地执行校园活动，包括但不限于宣讲会、双选会、专项招聘活动等
 2、协助校园大使项目的运营，推动校园大使完成高校宣传工作落地
@@ -4269,30 +4181,30 @@
 5、负责官方校招邮箱咨询运营</t>
         </is>
       </c>
-      <c r="G87" s="3" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="inlineStr">
+      <c r="G85" s="3" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>游戏客户端开发实习生</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="E86" s="3" t="inlineStr">
         <is>
           <t>1、计算机或相关专业，本科及以上学历；
 2、至少了解一门C系语言，至少精通一门面向对象的编程语言，并深入了解其思想、原理和底层细节；
@@ -4301,42 +4213,42 @@
 5、实习时长不低于3个月，每周出勤至少4天。</t>
         </is>
       </c>
-      <c r="F88" s="3" t="inlineStr">
+      <c r="F86" s="3" t="inlineStr">
         <is>
           <t>1、你将参与大型商业游戏的开发，深入了解游戏玩法设计，完成其中和客户端开发有关的工作，看到自己亲手制作的内容被上亿用户体验和喜爱；
 2、你将使用游戏开发引擎，完成各种模块的开发：UI系统、战斗系统、AI系统、角色3C、场景管理、性能优化、游戏安全等；
 3、你将与部门相关的上下游，如策划，美术等密切合作，提供专业的技术建议，逐渐熟悉并了解业内顶尖的的现代游戏技术方案。</t>
         </is>
       </c>
-      <c r="G88" s="3" t="inlineStr">
+      <c r="G86" s="3" t="inlineStr">
         <is>
           <t>1、有实际游戏项目的开发经历或实习经历；
 2、接触学习过游戏开发引擎（比如Unity、虚幻）。</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>AI产品实习生（3D方向）</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
+      <c r="E87" s="3" t="inlineStr">
         <is>
           <t>-本科或硕士在读，数字媒体、设计等相关专业；
 -熟悉正向建模流程，熟练使用Blender、Maya 等任一3D工具；
@@ -4344,37 +4256,37 @@
 -具备良好的数据敏感度，理解基本的数据采集、清洗、分析流程。</t>
         </is>
       </c>
-      <c r="F89" s="3" t="inlineStr">
+      <c r="F87" s="3" t="inlineStr">
         <is>
           <t>-参与 AI3D 产品的数据体系与产品流程建设，协助梳理数据采集、标注到产出的整体链路；
 -协助搭建模型测试集与基础评测指标，从产品视角跟进模型效果，发现问题并推动数据或流程优化；
 -配合产品、算法团队，支持 AI3D 功能迭代与产品体验优化相关工作。</t>
         </is>
       </c>
-      <c r="G89" s="3" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="inlineStr">
+      <c r="G87" s="3" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>AI产品实习生（美术资产管线-3D方向）</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
+      <c r="E88" s="3" t="inlineStr">
         <is>
           <t>-本科或硕士在读，数字媒体、设计等相关专业；
 -熟悉正向建模流程，熟练使用Blender、Maya 等任一3D工具；
@@ -4382,37 +4294,37 @@
 -具备良好的数据敏感度，理解基本的数据采集、清洗、分析流程。</t>
         </is>
       </c>
-      <c r="F90" s="3" t="inlineStr">
+      <c r="F88" s="3" t="inlineStr">
         <is>
           <t>-参与 AI3D 产品的数据体系与产品流程建设，协助梳理数据采集、标注到产出的整体链路；
 -协助搭建模型测试集与基础评测指标，从产品视角跟进模型效果，发现问题并推动数据或流程优化；
 -配合产品、算法团队，支持 AI3D 功能迭代与产品体验优化相关工作。</t>
         </is>
       </c>
-      <c r="G90" s="3" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="inlineStr">
+      <c r="G88" s="3" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>图形学研究员实习生（动作生成方向）</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E91" s="3" t="inlineStr">
+      <c r="E89" s="3" t="inlineStr">
         <is>
           <t>1. 学历背景：人工智能、计算机科学、图形学等相关专业硕士及以上学历；
 2. 算法能力：有动作合成/补间/控制相关网络训练经验，熟悉常见模型架构与训练流程；
@@ -4420,40 +4332,40 @@
 4. 工程能力：熟悉Python与PyTorch，能快速实现与验证想法。</t>
         </is>
       </c>
-      <c r="F91" s="3" t="inlineStr">
+      <c r="F89" s="3" t="inlineStr">
         <is>
           <t>面向实时场景的虚拟角色动画生成与控制技术研究与落地，围绕动作补间，动作合成与可控运动，提升角色在交互，移动等场景下的自然度、稳定性与实时性能。</t>
         </is>
       </c>
-      <c r="G91" s="3" t="inlineStr">
+      <c r="G89" s="3" t="inlineStr">
         <is>
           <t>1. 在角色动画/动作生成/运动控制相关方向发表过高质量论文或有开源成果；
 2. 熟悉Unreal/Unity动画系统或有实际项目落地经验。</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>UE5游戏渲染开发实习生（Console) -Varsapura</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E92" s="3" t="inlineStr">
+      <c r="E90" s="3" t="inlineStr">
         <is>
           <t>1.熟悉至少一种现代图形API（DX12, Vulkan等）；
 2.熟悉至少一种图形硬件架构（GCN, RDNA2等）；
@@ -4461,7 +4373,7 @@
 4.熟练掌握C++语言。</t>
         </is>
       </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="F90" s="3" t="inlineStr">
         <is>
           <t>1.与技术美术（TA）和美术团队紧密合作，开发符合次世代游戏画面水准的图形功能；
 2.优化在超大规模复杂场景下的图形功能性能； 
@@ -4470,34 +4382,34 @@
 5.学习并理解下一代主机平台的特性，结合项目做深度定制化图形功能开发。</t>
         </is>
       </c>
-      <c r="G92" s="3" t="inlineStr">
+      <c r="G90" s="3" t="inlineStr">
         <is>
           <t>有Unreal的引擎开发经验者优先</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>游戏增长策略分析实习生</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
+      <c r="E91" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，统计学、应用数学、运筹学、经济学、计算机科学，数据科学等相关专业，扎实的统计学基础，熟悉A/B实验评估体系
 2、有策略分析、增长分析、数据分析、经营分析、商业分析、产品分析等相关实习经验；
@@ -4508,7 +4420,7 @@
 7、热爱游戏，重度二次元游戏玩家优先</t>
         </is>
       </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="F91" s="3" t="inlineStr">
         <is>
           <t>1、制定科学的游戏宣发目标体系，基于游戏阶段设定业务目标，牵引现有游戏、新游戏的预算方案
 2、挖掘高价值的达人投放、内容激励策略，持续带动游戏的活跃、收入、品牌增长
@@ -4518,30 +4430,30 @@
 6、立足公司全局视角，挖掘结果导向的用户认知、分析牵引高价值策略方向，放大长期公司价值</t>
         </is>
       </c>
-      <c r="G93" s="3" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
+      <c r="G91" s="3" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>图形学研究员实习生（角色动画生成方向）</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t>1. 人工智能、计算机科学、图形学等相关专业硕士及以上学历；
 2. 熟练掌握 VAE，Diffusion 等常见生成模型原理，有过相关模型训练调优经验；
@@ -4549,12 +4461,12 @@
 4. 对技术充满热情，思维清晰，具有很好的问题分析推断能力，良好的沟通表达能力和合作能力。</t>
         </is>
       </c>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="F92" s="3" t="inlineStr">
         <is>
           <t>面向实时场景的角色动画生成技术探索与落地，围绕动作过渡、动作混合与动作，提升角色在交互、移动等场景下的自然度、稳定性与实时性能。重点关注姿态质量、接触与约束一致性等动画表现。</t>
         </is>
       </c>
-      <c r="G94" s="3" t="inlineStr">
+      <c r="G92" s="3" t="inlineStr">
         <is>
           <t>1. 在相关领域顶级会议（如SIGGRAPH/ASIA，CVPR）上有论文发表优先考虑；
 2. 熟悉动作生成/控制等一些常见技术，比如Motion Matching，PFNN，NSM, Learned Motion Matching等；
@@ -4562,28 +4474,28 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>LLM Posttrain算法实习生</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>1. 计算机科学、人工智能或相关领域的在读硕士/博士
 2. 在自然语言处理、大语言模型研究或机器学习领域中具有项目经验
@@ -4591,7 +4503,7 @@
 4. 具备有效的沟通和协作技能，对探索新技术和推动技术创新充满热情</t>
         </is>
       </c>
-      <c r="F95" s="3" t="inlineStr">
+      <c r="F93" s="3" t="inlineStr">
         <is>
           <t>1. 紧跟领域前沿技术，探索有效和高效的 RLHF 或 RLAIF 等post-training方法，提升大语言模型角色扮演、创意写作等方向的综合能力
 2. 参与预研项目的研发，与产品、策划、工程等多个团队紧密协作，拆解并设计具体的算法解决方案和交付目标
@@ -4599,7 +4511,7 @@
 4. 构建稳健可靠的算法评估流程，揭示大语言模型能力边界和潜在机制</t>
         </is>
       </c>
-      <c r="G95" s="3" t="inlineStr">
+      <c r="G93" s="3" t="inlineStr">
         <is>
           <t>1. 在NeurIPS/ICML/ACL/EMNLP等顶级会议上发表过高引论文，或在ACM/ICPC，NOI/IOI，TopCoder等大赛上有获奖
 2. 主导过有影响力的LLM应用项目，或有丰富的技术落地经验
@@ -4609,28 +4521,28 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>LLM Pretrain算法实习生</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
+      <c r="E94" s="3" t="inlineStr">
         <is>
           <t>1. 计算机科学、人工智能或相关领域的在读硕士或博士
 2. 在自然语言处理、大语言模型研究或机器学习领域中具有相关研究经验
@@ -4638,7 +4550,7 @@
 4. 具备有效的沟通和协作技能，对探索新技术和推动技术创新充满热情</t>
         </is>
       </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="F94" s="3" t="inlineStr">
         <is>
           <t>1. 专研训练框架，快速定位训练中出现的问题，分析训练过程中的模型表现，跟infra team合作来保证训练策略的正确性
 2. 紧跟领域前沿技术，研究新型LLM模型架构，提升训练或推理的计算效率和模型性能
@@ -4646,7 +4558,7 @@
 4. 拓展模型在长文本理解和生成的能力</t>
         </is>
       </c>
-      <c r="G96" s="3" t="inlineStr">
+      <c r="G94" s="3" t="inlineStr">
         <is>
           <t>1. 在NeurIPS/ICML/ACL/EMNLP等顶级会议上发表过高引论文
 2. 在ACM/ICPC，NOI/IOI，TopCoder等编程竞赛上有获奖
@@ -4655,28 +4567,28 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>LLM Evaluation算法实习生</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E97" s="3" t="inlineStr">
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>1. 计算机科学、人工智能或相关领域的在读硕士或博士
 2. 对大语言模型评测体系有较深入的理解，并能构建评估方法以改进模型性能，掌握LLM as Judge技术
@@ -4684,14 +4596,14 @@
 4. 有良好的中英文阅读和鉴赏能力，有良好的沟通合作能力</t>
         </is>
       </c>
-      <c r="F97" s="3" t="inlineStr">
+      <c r="F95" s="3" t="inlineStr">
         <is>
           <t>1. 对大语言模型评估结果做深入数据分析，理解不同评估指标与用户体验、需求之间的关联，对模型训练迭代提供指导意见
 2. 研发可靠的大语言模型评估管线，制定针对角色扮演、创意写作等能力的自动或人工评测准则与方法，构建对应的评测数据集
 3. 紧扣偏好对齐目标，分析和清洗奖励模型数据，研发不易被reward hack、偏好有深度的奖励模型</t>
         </is>
       </c>
-      <c r="G97" s="3" t="inlineStr">
+      <c r="G95" s="3" t="inlineStr">
         <is>
           <t>1. 在ACM/ICPC，NOI/IOI，TopCoder等编程大赛上有获奖
 2. 在模型评估方向有NeurIPS/ICML/ACL/EMNLP顶级论文发表，积极追踪大模型方向前沿进展和应用
@@ -4700,42 +4612,42 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="3" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>高性能算子开发实习生</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t>程序&amp;技术类</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>博士及以上</t>
         </is>
       </c>
-      <c r="E98" s="3" t="inlineStr">
+      <c r="E96" s="3" t="inlineStr">
         <is>
           <t>1.在读硕士或博士，熟练掌握C/C++、Python编程语言，具备良好的coding和调试能力；
 2.熟悉GPU系统架构和CUDA/Cublas/Cutlass等，熟练使用nsys/nsight等分析工具；
 3.加分项：熟悉主流大模型训练/推理框架（Megatron-LM/vLLM/SGLang等），有实际性能调优经验</t>
         </is>
       </c>
-      <c r="F98" s="3" t="inlineStr">
+      <c r="F96" s="3" t="inlineStr">
         <is>
           <t>1.针对大模型训练、强化学习、推理场景，负责GPU kernel开发与调优；
 2.深入分析GPU/主流AI芯片的硬件架构特性，设计并实现高性能算子、算法和相关组件；
 3.保持关注行业前沿技术，且有能力和热情开展创新研究；</t>
         </is>
       </c>
-      <c r="G98" s="3" t="inlineStr">
+      <c r="G96" s="3" t="inlineStr">
         <is>
           <t>- 深入研究过至少一种机器学习框架（TF/PyTorch）或其他分布式训练框架（Megatron/VeRL等）的底层架构和原理
 - 有硕士/博士阶段的计算机系统方向研究背景，或在国际顶级系统会议上（OSDI/SOSP/SIGCOMM/ASPLOS/NSDI等）发表过论文
@@ -4743,28 +4655,28 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>境内创作者运营实习生</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B97" s="3" t="inlineStr">
         <is>
           <t>运营类</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr">
+      <c r="E97" s="3" t="inlineStr">
         <is>
           <t>1.在校生，本科及以上学历，每周可实习 4-5 天，可连续实习 6 个月及以上
 2.对游戏内容、UP主 / 自媒体 / 二次元内容生态有兴趣，有基础认知
@@ -4773,7 +4685,7 @@
 5.有创作者、内容账号运营经验者优先</t>
         </is>
       </c>
-      <c r="F99" s="3" t="inlineStr">
+      <c r="F97" s="3" t="inlineStr">
         <is>
           <t>1.协助进行游戏创作者（UP主 / 达人）的日常运营与维护，包括内容跟进、沟通协作、信息整理等
 2.参与创作者分层管理与数据整理，协助分析内容表现、创作活跃度及成长情况
@@ -4782,30 +4694,30 @@
 5.完成团队交办的其他创作者相关支持工作</t>
         </is>
       </c>
-      <c r="G99" s="3" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
+      <c r="G97" s="3" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>财务实习生（财务专家方向）</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E100" s="3" t="inlineStr">
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>1. 本科及以上学历，2027届毕业生，财务管理、会计、税务、审计、资产、数学、统计、AI等相关专业，了解财务知识；
 2. 对业务有好奇心，具备出色的自驱力和学习能力，能够适应业务的快速变化；
@@ -4814,7 +4726,7 @@
 5. 热爱游戏。</t>
         </is>
       </c>
-      <c r="F100" s="3" t="inlineStr">
+      <c r="F98" s="3" t="inlineStr">
         <is>
           <t>1. 协助处理公司全盘账务，包括进行游戏业务对账结算、付款单据审核、会计账目核对、财务报表编制等，准确及时地完成结账工作和会计资料归档；
 2. 协助进行财务分析，提供及时可靠的财务数据、监控风险并支撑业务决策；
@@ -4823,7 +4735,7 @@
 5. 完成上级交办的其他工作。</t>
         </is>
       </c>
-      <c r="G100" s="3" t="inlineStr">
+      <c r="G98" s="3" t="inlineStr">
         <is>
           <t>1. 熟悉财务软件及自动化工具，具备使用AI辅助完成数据处理、对账或分析任务的能力者优先。
 2. 已考取CICPA，ACCA等相关职业证书；
@@ -4831,28 +4743,28 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>国际化发行数据分析实习生</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>国际化类</t>
         </is>
       </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>硕士及以上</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr">
         <is>
           <t>1. 本科或硕士在读，STEM相关专业背景（如统计、数学、计算机科学、信息技术、数据科学、工程等）；
 2. 可保证每周出勤 3–5 天，至少连续实习 6 个月；
@@ -4864,7 +4776,7 @@
 8. 良好的沟通协作意识，能够清晰表述分析过程与结果。</t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr">
+      <c r="F99" s="3" t="inlineStr">
         <is>
           <t>1. 通过编写 SQL 查询、生成基础分析报告与数据看板，支持内部数据需求；
 2. 设计并维护网页事件埋点，追踪及分析网页业务指标，评估H5玩法与功能表现，以及用户漏斗；
@@ -4873,30 +4785,30 @@
 5. 在指导下参与专项分析课题，通过数据洞察为业务决策提供初步建议。</t>
         </is>
       </c>
-      <c r="G101" s="3" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="inlineStr">
+      <c r="G99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>关卡美术实习生</t>
         </is>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B100" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E102" s="3" t="inlineStr">
+      <c r="E100" s="3" t="inlineStr">
         <is>
           <t>1.扎实的美术功底，优秀的审美能力，有丰富的想象力和创造力；
 2.基本掌握Zbrush、3dsMAX/Maya等3D建模软件以及Substance Painter等PBR材质软件，了解3D模型的相关基础知识；
@@ -4907,14 +4819,14 @@
 7.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr">
+      <c r="F100" s="3" t="inlineStr">
         <is>
           <t>1.成为一名优秀的游戏关卡美术设计师，输出高品质的美术资源；
 2.与策划、原画配合规划场景内的人文，山石，生态，水系，景点等自然风貌；并与模型师、灯光师、TA配合对游戏场景进行铺设优化，营造环境氛围；
 3.在与上下游充分沟通，了解需求，对齐标准的基础上，跟进并确保最终关卡的落地效果。</t>
         </is>
       </c>
-      <c r="G102" s="3" t="inlineStr">
+      <c r="G100" s="3" t="inlineStr">
         <is>
           <t>1.美术专业，专业美术院校毕业优先；
 2.参与过游戏项目的实习/外包经历优先；
@@ -4922,28 +4834,28 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="3" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>战斗策划实习生</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B101" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E103" s="3" t="inlineStr">
+      <c r="E101" s="3" t="inlineStr">
         <is>
           <t>1.热爱游戏，有丰富的游戏经历，包括但不限于动作游戏、开放世界游戏、RPG游戏、UGC游戏等。对游戏的战斗部分有深入的理解；
 2.熟悉任一商业化引擎，能独立实现简单原型；
@@ -4951,37 +4863,37 @@
 4.有个人制作游戏demo经验者加分。</t>
         </is>
       </c>
-      <c r="F103" s="3" t="inlineStr">
+      <c r="F101" s="3" t="inlineStr">
         <is>
           <t>1.负责角色/怪物的设计与制作，包括玩法定位、技能、AI、美术表现、生态性等；
 2.与其他策划、美术等相关岗位保持紧密沟通，协调数值、布设、关卡玩法、美术表现等内容，整理形成制作管线需求并跟进开发；
 3.梳理制作中所产生的机制、功能需求，与程序确定方案逻辑并跟进开发。</t>
         </is>
       </c>
-      <c r="G103" s="3" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
+      <c r="G101" s="3" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>交互策划（UE）实习生</t>
         </is>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B102" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E104" s="3" t="inlineStr">
+      <c r="E102" s="3" t="inlineStr">
         <is>
           <t>1.工业设计、人机交互、数字媒体、计算机、心理学等类相关专业，本科及以上学历；
 2.熟悉交互设计的理论知识和基本流程，有平面设计功底和良好的审美能力、学习能力，关注设计行业动向；
@@ -4990,7 +4902,7 @@
 5.热爱游戏，有丰富的游戏经历，对游戏交互有一定的思考和见解。</t>
         </is>
       </c>
-      <c r="F104" s="3" t="inlineStr">
+      <c r="F102" s="3" t="inlineStr">
         <is>
           <t>1.负责游戏的交互设计、信息架构，进行需求分析，梳理玩家体验路径和使用过程，产出设计原型和说明文档；
 2.多岗位协作，保证功能、视觉、动效、世界观设定等各方面完整性，规划制作进度，验收和把控设计方案落地效果；
@@ -4998,30 +4910,30 @@
 4.收集游戏体验问题，关注玩家反馈，推进游戏内体验优化。</t>
         </is>
       </c>
-      <c r="G104" s="3" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="inlineStr">
+      <c r="G102" s="3" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>系统策划实习生</t>
         </is>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B103" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
+      <c r="E103" s="3" t="inlineStr">
         <is>
           <t>1.热爱游戏，涉猎广泛，有丰富的游戏经历；
 2.熟悉Unity的基本结构与操作，有一定代码基础，了解相关配置格式与脚本语言（xml/json/lua…)；
@@ -5029,37 +4941,37 @@
 4.沟通协调能力强，主动学习意愿强，有一定规划统筹能力。</t>
         </is>
       </c>
-      <c r="F105" s="3" t="inlineStr">
+      <c r="F103" s="3" t="inlineStr">
         <is>
           <t>1.根据游戏项目的系统架构编写相关系统及活动玩法功能文档；
 2.与程序、UI、美术等部门合作，跟进系统功能的制作及验收；
 3.维护线上版本内容、完善已有文档，结合反馈对现有系统进行有效的迭代与扩展。</t>
         </is>
       </c>
-      <c r="G105" s="3" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="inlineStr">
+      <c r="G103" s="3" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>游戏原画实习生（角色/怪物/美宣）</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B104" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
+      <c r="E104" s="3" t="inlineStr">
         <is>
           <t>1.熟练掌握PS、SAI、CSP等常用绘图软件； 
 2.扎实的美术基本功和优秀的审美素养，对于图形、色彩、光影、立体构成等有较好的理解；
@@ -5069,7 +4981,7 @@
 6.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F106" s="3" t="inlineStr">
+      <c r="F104" s="3" t="inlineStr">
         <is>
           <t>1.能够独立以高水平的美术品质完成创作；
 2.根据项目需求绘制游戏中的角色/怪物设计稿，绘制符合研发标准的三视图；参与制作的各个表现环节，对模型和动作制作进行监修和验收；
@@ -5077,35 +4989,35 @@
 4.能适应目标项目的设计需求、风格特征（不限于日系二次元、现代都市、写实奇幻等）。</t>
         </is>
       </c>
-      <c r="G106" s="3" t="inlineStr">
+      <c r="G104" s="3" t="inlineStr">
         <is>
           <t>1.参与过游戏项目的实习/外包经历，或有ACG同人创作经验；
 2.对游戏富有激情，有比较丰富的主机/网游/手机游戏经验。</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>场景原画实习生</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B105" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
+      <c r="E105" s="3" t="inlineStr">
         <is>
           <t>1.熟练掌握Photoshop/Sai/CSP等绘画软件；
 2.扎实的美术基本功和优秀的审美素养，对于场景颜色和光影效果有良好的把控能力，对物体有清晰的空间感；
@@ -5115,14 +5027,14 @@
 6.对流行文化有一定敏感度，对于各种文化和对应题材涉猎面较广。</t>
         </is>
       </c>
-      <c r="F107" s="3" t="inlineStr">
+      <c r="F105" s="3" t="inlineStr">
         <is>
           <t>1.参与游戏前期美术设计，包括概念气氛图、区域规划、单体建筑设计、可交互物件、山石、植被设计拆分等；
 2.结合世界观设定对物品进行包装，跟进策划需求，明确设计功能和目的，协同3D美术人员，完成场景相关的细节设计；
 3.与研发上下游沟通和配合，完善场景在游戏中的最终表现效果。</t>
         </is>
       </c>
-      <c r="G107" s="3" t="inlineStr">
+      <c r="G105" s="3" t="inlineStr">
         <is>
           <t>1.参与过游戏项目的实习/外包经历；
 2.对游戏富有激情，有比较丰富的主机/网游/手机游戏经验；
@@ -5131,28 +5043,28 @@
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>游戏特效实习生</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B106" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
+      <c r="E106" s="3" t="inlineStr">
         <is>
           <t>1.具备良好的美术功底，对于图形、色彩、立体构成等基础领域有良好的理解；
 2.熟悉Unity引擎的粒子系统，了解特效贴图和模型的制作方法，具备一定的手绘能力；或熟悉UE引擎及Niagara粒子系统，了解特效贴图模型的制作；
@@ -5161,7 +5073,7 @@
 5.具备良好的学习能力，能够独立解决简单问题并做到举一反三。</t>
         </is>
       </c>
-      <c r="F108" s="3" t="inlineStr">
+      <c r="F106" s="3" t="inlineStr">
         <is>
           <t>1.按照策划需求设计并制作游戏中战斗、Cutscene、活动、物件等特效，并跟进特效资源在游戏中的表现；
 2.配合性能组做好特效资源的性能优化，保证游戏流畅运行；
@@ -5169,35 +5081,35 @@
 4.不断学习和尝试新的特效技术和软件。</t>
         </is>
       </c>
-      <c r="G108" s="3" t="inlineStr">
+      <c r="G106" s="3" t="inlineStr">
         <is>
           <t>1.熟悉当前流行动漫，游戏；对风格化特效感兴趣，包括但不限于日系风格；
 2.游戏爱好者，有比较丰富的主机/网游/手机游戏经验。</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>财务实习生（财务BP方向）</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B107" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
+      <c r="E107" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，2027届毕业生，财务管理、审计、资产、数学、统计、AI等相关专业，了解财务知识；
 2、掌握至少一种数据分析工具，具备优秀的逻辑思维能力、对数据敏感，有一定的数据建模能力：投递简历时需就数据分析能力提供案例支持；
@@ -5207,7 +5119,7 @@
 6、时间要求：每周到岗天数(≥3天) x 实习期（≥6个月）。</t>
         </is>
       </c>
-      <c r="F109" s="3" t="inlineStr">
+      <c r="F107" s="3" t="inlineStr">
         <is>
           <t>1、成本费用管理：辅助资深财务BP、从业务模式出发、摸清预算编制、执行、监控、改进相关的PDCA全过程，识别提效空间、协调跨部门协作的执行落地，为业务提供优质的财务专家服务；
 2、财务专项分析：协助资深财务bp完成内容制作成本、渠道成本、运维成本等专项分析，识别异常项，辅助业务提升资源使用效率；
@@ -5215,7 +5127,7 @@
 4、流程优化、系统化建设及日常答疑：参与公司级制度和系统建设，能为业务提供财务相关系统和流程的日常答疑服务；同时、将业财流程的痛点洞察提炼成制度和系统建设相关的建议</t>
         </is>
       </c>
-      <c r="G109" s="3" t="inlineStr">
+      <c r="G107" s="3" t="inlineStr">
         <is>
           <t>1. 熟练掌握数据分析工具（包括但不限于 Python、SQL 等）、或能熟练使用前沿的AI类工具完成过课题的优先
 2. 已考取CICPA，ACCA，CCTAA等相关职业证书；
@@ -5224,28 +5136,28 @@
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
         <is>
           <t>机械原画实习生</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B108" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E110" s="3" t="inlineStr">
+      <c r="E108" s="3" t="inlineStr">
         <is>
           <t>1.热爱游戏，对射击游戏有深刻的理解和热情；
 2.具备扎实的美术功底；
@@ -5254,7 +5166,7 @@
 5.具备优秀的沟通能力和团队合作精神。</t>
         </is>
       </c>
-      <c r="F110" s="3" t="inlineStr">
+      <c r="F108" s="3" t="inlineStr">
         <is>
           <t>1.根据游戏世界观、角色设定和玩法需求，设计符合游戏风格且具有辨识度枪械/载具/机械装置的外观；
 2.负责枪械/载具/机械装置的概念设计、三视图绘制等工作；
@@ -5263,7 +5175,7 @@
 5.关注行业动态，学习最新的游戏美术设计理念和技术，并将其应用到实际工作中。</t>
         </is>
       </c>
-      <c r="G110" s="3" t="inlineStr">
+      <c r="G108" s="3" t="inlineStr">
         <is>
           <t>1.掌握3Ds Max/Maya等设计软件，有模型制作、贴图绘制的能力；
 2.有丰富的射击游戏经验，并对主流射击游戏的设计有深入的理解；
@@ -5271,41 +5183,41 @@
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="3" t="inlineStr">
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
         <is>
           <t>UI动效实习生</t>
         </is>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B109" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E111" s="3" t="inlineStr">
+      <c r="E109" s="3" t="inlineStr">
         <is>
           <t>1.影视制作、多媒体设计、动画、数字媒体等相关专业、有扎实的美术功底；
 2.熟悉视觉设计，有较强的动画设计功底，掌握设计制作工具PS，熟练掌握AE、3D软件、Spine等动画软件，对Unity引擎的使用较为熟悉，熟悉UGUI，或对Unreal引擎的使用较为熟悉，熟悉UMG；
 3.逻辑思维清晰，具备良好的沟通能力、团队协作能力。</t>
         </is>
       </c>
-      <c r="F111" s="3" t="inlineStr">
+      <c r="F109" s="3" t="inlineStr">
         <is>
           <t>1.根据界面视觉风格，设计制作界面动画和特效相关资源，提升游戏表现；
 2.配合UI设计师和开发团队，使用Unity引擎、Unreal引擎或者AE等工具实现动效落地，确保效果与设计一致。</t>
         </is>
       </c>
-      <c r="G111" s="3" t="inlineStr">
+      <c r="G109" s="3" t="inlineStr">
         <is>
           <t>Unity方向：
 1.深谙二次元文化，熟悉当前流行动漫，游戏，对于日系风格有深入的了解；
@@ -5315,28 +5227,28 @@
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>CG特效实习生</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B110" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E112" s="3" t="inlineStr">
+      <c r="E110" s="3" t="inlineStr">
         <is>
           <t>1.精通Houdini、Maya、Nuke等软件，并熟练掌握Arnold、Karma等主流渲染器的运用；
 2.拥有快速学习新技术的能力，能够适应各类美术风格的特效制作；
@@ -5346,7 +5258,7 @@
 PS：简历中请附上代表性作品，如果是团队作品，需明确注释自己具体参与的部分。</t>
         </is>
       </c>
-      <c r="F112" s="3" t="inlineStr">
+      <c r="F110" s="3" t="inlineStr">
         <is>
           <t>1.与各部门同学沟通协作，根据项目风格和特效设计，完成特效相关的制作需求；
 2.参与Cutscene、PV、角色以及怪物相关的特效制作工作；
@@ -5354,7 +5266,7 @@
 4.能够与TA和程序团队进行良好沟通，清晰阐述需求。跟进工具、特效相关脚本及材质的改进与落地工作。</t>
         </is>
       </c>
-      <c r="G112" s="3" t="inlineStr">
+      <c r="G110" s="3" t="inlineStr">
         <is>
           <t>1.了解AI，并且熟悉使用AI 工具辅助产出内容。比如AI 编程，AI 生图视频，了解comfy UI搭建环境；
 2.拥有线下或线上系统性强化学习Houdini的经历；
@@ -5363,28 +5275,28 @@
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>特效设计实习生</t>
         </is>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B111" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E113" s="3" t="inlineStr">
+      <c r="E111" s="3" t="inlineStr">
         <is>
           <t>1.熟练掌握PS、SAI等绘画软件；
 2.扎实的美术基本功、优秀的审美素养和空间、动态想象力；
@@ -5394,14 +5306,14 @@
 6.简历内请附带作品，或Weibo/Artstation/Lofter/Pixiv/bilibili/Zcool/Behance等平台的个人主页链接。</t>
         </is>
       </c>
-      <c r="F113" s="3" t="inlineStr">
+      <c r="F111" s="3" t="inlineStr">
         <is>
           <t>1.根据角色、怪物、BOSS、通用效果的设定以及动画来绘制特效的概念设计稿；
 2.参与特效制作过程中的反馈和迭代跟进，保证落地效果质量；
 3.绘制特效设计中的相关特效贴图。</t>
         </is>
       </c>
-      <c r="G113" s="3" t="inlineStr">
+      <c r="G111" s="3" t="inlineStr">
         <is>
           <t>-对3D特效有一定了解，或者对特效感兴趣愿意花时间来学习实现特效表现的过程；
 -懂得动态设计，有很强的节奏感 ，会传统手绘动画，对游戏分镜有一定的理解；
@@ -5409,28 +5321,28 @@
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="3" t="inlineStr">
+    <row r="112">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>场景模型实习生</t>
         </is>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E114" s="3" t="inlineStr">
+      <c r="E112" s="3" t="inlineStr">
         <is>
           <t>1.扎实的美术功底，优秀的审美能力，有丰富的想象力和创造力；
 2.熟练掌握Zbrush、3dsMAX/Maya等3D建模软件以及Substance Painter等PBR材质软件，了解3D模型的相关基础知识；
@@ -5440,14 +5352,14 @@
 6.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F114" s="3" t="inlineStr">
+      <c r="F112" s="3" t="inlineStr">
         <is>
           <t>1.成为一名优秀的3D场景模型师，持续输出高品质的美术资产；
 2.依据游戏设定并结合原画，理解原画意图，完成游戏中3D场景模型制作；
 3.与项目组程序、策划、美术团队充分沟通，了解需求，准确对接并实现效果。</t>
         </is>
       </c>
-      <c r="G114" s="3" t="inlineStr">
+      <c r="G112" s="3" t="inlineStr">
         <is>
           <t>1.参与过游戏项目的实习/外包经历；
 2.热爱游戏，对游戏富有激情，爱看动画、电影优先考虑；
@@ -5455,28 +5367,28 @@
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>SD材质实习生（程序化贴图）</t>
         </is>
       </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
+      <c r="E113" s="3" t="inlineStr">
         <is>
           <t>1.熟练掌握Substance Designer、Substance Painter、3D Studio Max、MAYA、ZBrush等开发流程相关软件；
 2.熟悉PBR制作流程，具备风格化美术表现制作相关的知识积累；
@@ -5484,7 +5396,7 @@
 4.热爱游戏开发，对开发品质有执着追求，具备较强的学习创新能力，能够适应高强度的工作压力，富有工作激情和责任感。</t>
         </is>
       </c>
-      <c r="F115" s="3" t="inlineStr">
+      <c r="F113" s="3" t="inlineStr">
         <is>
           <t>1.负责开发符合项目美术风格的程序化和资产材质纹理；
 2.与3D场景和LA团队密切合作，确保程序化和资产材质纹理的美术效果，考虑易用性和灵活性以实现快速迭代；
@@ -5494,7 +5406,7 @@
 6.开发贴图生产管线流程相关工具和节点集，维护和更新工具集和相关文档。</t>
         </is>
       </c>
-      <c r="G115" s="3" t="inlineStr">
+      <c r="G113" s="3" t="inlineStr">
         <is>
           <t>1.参与过游戏项目的实习/外包经历；
 2.对游戏富有激情，有比较丰富的主机/网游/手机游戏经验；
@@ -5502,28 +5414,28 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="3" t="inlineStr">
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>灯光实习生</t>
         </is>
       </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>美术&amp;表现类</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="E114" s="3" t="inlineStr">
         <is>
           <t>1.需要有丰富的色彩想象力，对色彩有敏感的认知和扎实的光影塑造能力，有原画或者Color Key经验优先；
 2.对流行的游戏引擎（Unreal、Unity等）有一定了解，或者对流行的渲染器有一定了解；
@@ -5533,42 +5445,42 @@
 6.热爱游戏，希望投身游戏行业，对游戏美术有执着的追求。</t>
         </is>
       </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="F114" s="3" t="inlineStr">
         <is>
           <t>1.通过和策划、美术、技术美术紧密合作设计游戏中的灯光美术方案 ，以及过场动画中的灯光氛围；
 2.参与协调场景和其他相关部门灯光需求，创造高质量的灯光氛围并且贯穿项目的风格；
 3.与技术团队共同探索灯光工具及渲染技术，并确保渲染实现方案符合性能的视觉品质和要求。</t>
         </is>
       </c>
-      <c r="G116" s="3" t="inlineStr">
+      <c r="G114" s="3" t="inlineStr">
         <is>
           <t>1.热爱电影，对电影灯光艺术有一定见解；
 2.热爱摄影者加分。欢迎补充摄影作品。</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>数值策划实习生</t>
         </is>
       </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="B115" s="3" t="inlineStr">
         <is>
           <t>产品策划类</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
         <is>
           <t>不限/未提及</t>
         </is>
       </c>
-      <c r="E117" s="3" t="inlineStr">
+      <c r="E115" s="3" t="inlineStr">
         <is>
           <t>1.热爱游戏，涉猎广泛，有丰富的游戏经历，对游戏内的相关数值有一定了解和研究；
 2.有良好的数学功底和逻辑能力；
@@ -5576,37 +5488,81 @@
 4.熟练掌握一种编程或脚本语言者加分，有良好的统计学功底加分。</t>
         </is>
       </c>
-      <c r="F117" s="3" t="inlineStr">
+      <c r="F115" s="3" t="inlineStr">
         <is>
           <t>1.设计并迭代游戏内的战斗数值和经济数值；
 2.设计并迭代角色/怪物平衡性、经济系统数值等；
 3.根据各渠道的反馈，结合数据分析，对相关数值进行调整和优化。</t>
         </is>
       </c>
-      <c r="G117" s="3" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="inlineStr">
+      <c r="G115" s="3" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>LLM算法实习生</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>程序&amp;技术类</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>硕士及以上</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>1、硕士及以上学位在读，计算机、人工智能等相关专业优先
+2、深入了解LLM后训练，具备LLM Benchmark设计/奖励信号设计/强化学习训练项目经验者优先
+3、具备良好的中英文阅读和鉴赏能力，有良好的沟通合作能力
+4、熟练使用python语言和pytorch框架</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>1、设计严谨和科学的针对post train model的benchmark，准确评估基础模型能力，设计模型能力优化方向，提升基础模型的social intelligence
+2、设计和训练奖励模型，深度参与基础模型的后训练优化，持续解决reward hacking问题和扩大强化学习训练规模
+3、研究Reward System，涉及但不限于LLM-as-Judge, Generative Reward Model, Agentic Reward Model, Sandbox等技术</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="inlineStr">
+        <is>
+          <t>1. 在ACM/ICPC，NOI/IOI，TopCoder等编程大赛上有获奖
+2. 在后训练/模型评估有NeurIPS/ICML/ACL/EMNLP顶级论文发表，积极追踪大模型方向前沿进展和应用
+3. 具备良好的文学素养，对游戏、影视、小说等人文和娱乐内容有浓厚兴趣</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>市场文案实习生-星布谷地</t>
         </is>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B117" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr">
+      <c r="E117" s="3" t="inlineStr">
         <is>
           <t>1. 学历与身份：
 全日制本科及以上在校学生，专业不限（文学、广告、新闻传播等相关专业优先）。
@@ -5622,7 +5578,7 @@
 5.表现优秀可提供转正机会</t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
+      <c r="F117" s="3" t="inlineStr">
         <is>
           <t>1. 治愈系文案创作：
 负责《星布谷地》对外宣发内容的文案撰写。包括但不限于：KV海报Slogan、PV旁白脚本、官网/落地页文案、H5互动小故事等。
@@ -5634,30 +5590,30 @@
 将网络热梗进行“软化”处理，使其自然融入到游戏的日常宣发文案中，既懂年轻人的梗，又不失温暖的格调。</t>
         </is>
       </c>
-      <c r="G118" s="3" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="inlineStr">
+      <c r="G117" s="3" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>直播生态运营实习生-崩坏：因缘精灵</t>
         </is>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B118" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
+      <c r="E118" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，关注游戏行业市场宣发动作，热爱游戏
 2、目标导向、具备数据思维，关注游戏直播生态并有自己的理解
@@ -5666,7 +5622,7 @@
 5、至少实习5个月以上</t>
         </is>
       </c>
-      <c r="F119" s="3" t="inlineStr">
+      <c r="F118" s="3" t="inlineStr">
         <is>
           <t>1、参与产品在B站、抖音等平台的直播生态运营，包括但不限于平台对接、活动策划、机构合作、主播维护等
 2、负责挖掘、孵化潜力主播，依据生态规划及主播属性进行标签化维护，产出相关合作及扶持方案
@@ -5674,30 +5630,30 @@
 4、参与项目复盘，从全局视角评估直播模块的产出效果，沉淀经验、梳理业务未来的迭代方向</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="inlineStr">
+      <c r="G118" s="3" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>B站内容生态运营 实习生- 崩坏：因缘精灵</t>
         </is>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
         <is>
           <t>市场&amp;商务类</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E120" s="3" t="inlineStr">
+      <c r="E119" s="3" t="inlineStr">
         <is>
           <t>1、本科及以上学历，热爱游戏及二次元文化，B站重度用户，熟悉内容分发机制与UP主合作模式
 2、具备强好奇心和洞察力，有优秀的内容鉴赏能力和创意能力
@@ -5706,7 +5662,7 @@
 5、至少实习5个月以上</t>
         </is>
       </c>
-      <c r="F120" s="3" t="inlineStr">
+      <c r="F119" s="3" t="inlineStr">
         <is>
           <t>1、参与产品的B站内容生态运营，包括但不限于平台合作对接、传播事件策划、创作者对接、运营活动执行
 2、挖掘并孵化优质创作者，构建激励及成长体系，产出高品质二创内容，打造长线创作生态
@@ -5714,30 +5670,30 @@
 4、探索AI技术在内容生态业务中的运用，帮助业务提升效率</t>
         </is>
       </c>
-      <c r="G120" s="3" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="inlineStr">
+      <c r="G119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>IP周边衍生品采购实习生</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>综合类</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>实习生专项</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>本科及以上</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
+      <c r="E120" s="3" t="inlineStr">
         <is>
           <t>1.本科及以上学历，有供应链、物流、财务、商务管理等专业优先；
 2.热爱游戏，对游戏相关的产品有热情【畅游在产品的海洋：手办/吧唧/立牌/玩偶/服饰/文创等等】，能够结合游戏的场景人物延展产品的开发；
@@ -5747,7 +5703,7 @@
 6.性格沉稳，遇事解决问题为导向，同时善于思考、做事利落。</t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="F120" s="3" t="inlineStr">
         <is>
           <t>1.采购支持：协助完成采购订单【含信息维护】的下发、跟踪以及交付等问题；
 2.合同/文件管理：协助合同的起草、跟踪流程，整理归档采购相关文件，协助起草采购相关流程等；
@@ -5756,7 +5712,7 @@
 5.样品管理：协助内部样品整理归档、以及分发。</t>
         </is>
       </c>
-      <c r="G121" s="3" t="inlineStr">
+      <c r="G120" s="3" t="inlineStr">
         <is>
           <t>1.有实习或项目经验者优先；
 2.熟悉采购流程及ERP系统；
@@ -5765,6 +5721,102 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>社媒传播实习生-崩坏：星穹铁道</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>市场&amp;商务类</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>本科及以上</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>1.本科及以上学历在校生，每周至少实习4天，持续3个月以上
+2.深度游戏玩家，对至少一款主流游戏有长期体验和独到理解
+3.活跃在主流社交平台，熟悉不同平台的内容特点和用户生态
+4.具备良好的文字表达能力和内容创作sense，能快速学习相关工具
+5.善于沟通，有责任心，能适应快节奏的互联网工作环境</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>1.参与游戏官方社交账号（微博/B站/小红书等）的日常运营，策划并发布有吸引力的内容
+2.关注玩家社区动态，收集和分析用户反馈，为内容策略提供数据支持
+3.协助策划线上活动，从创意发想到执行落地，提升玩家参与度和社区活跃度
+4.跟踪社媒平台热点和趋势，结合游戏特色策划传播内容
+5.协助处理社区舆情，维护健康的社区氛围</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="inlineStr">
+        <is>
+          <t>1.有自媒体运营或内容创作经验
+2.对米哈游产品有深度体验和理解
+3.具备基本的数据分析能力
+4.熟悉二次元文化社区生态</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>品牌线下活动实习生-崩坏：星穹铁道</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>市场&amp;商务类</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>实习生专项</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>本科及以上</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>1.本科及以上学历在校生，每周至少实习4天，持续3个月以上
+2.热爱游戏，对至少一款主流游戏有深度体验和理解
+3.具备良好的沟通协调能力和现场应变能力，能吃苦耐劳
+4.细心负责，对活动细节有较高关注度，具备较强的执行力
+5.能够适应不定期周末工作和短途出差（如展会支持）</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>1.参与游戏主题线下活动（如展会、嘉年华、快闪店）的全程策划与执行落地
+2.协助活动方案细化，包括流程设计、物料准备、场地布置等具体环节
+3.现场支持活动执行，处理突发状况，确保活动顺畅进行
+4.收集活动现场反馈，参与活动效果分析和复盘优化
+5.与内外部团队协作，推动活动各环节按时高质量完成</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>1.有校园活动或线下活动组织经验
+2.对米哈游产品有深度体验和热情
+3.具备基本的文案撰写或设计能力
+4.熟悉二次元线下活动文化和玩家需求</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
